--- a/prop-test.xlsx
+++ b/prop-test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="369">
   <si>
     <t>Address</t>
   </si>
@@ -85,19 +85,19 @@
     <t>Distance to comp sci and law</t>
   </si>
   <si>
-    <t>Distance to physics</t>
-  </si>
-  <si>
-    <t>Walking duration to comp sci and law</t>
-  </si>
-  <si>
-    <t>Walking duration to physics</t>
+    <t>Distance to Etas</t>
+  </si>
+  <si>
+    <t>Cycling duration to Etas</t>
+  </si>
+  <si>
+    <t>Walking duration to Comp Sci</t>
   </si>
   <si>
     <t>Bus travel to Comp sci and law</t>
   </si>
   <si>
-    <t>Bus travel to physics</t>
+    <t>Cycling duration to Comp Sci</t>
   </si>
   <si>
     <t>Features</t>
@@ -109,916 +109,1018 @@
     <t>Any questions?</t>
   </si>
   <si>
-    <t>27 Green Dykes Lane Hull Road York</t>
+    <t>The Gatehouse Orchard Lane Hull Road York</t>
+  </si>
+  <si>
+    <t xml:space="preserve">£122 pppw </t>
+  </si>
+  <si>
+    <t>£142 pppw</t>
+  </si>
+  <si>
+    <t>university of york</t>
+  </si>
+  <si>
+    <t>06/07/2020</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>virgin &lt;350mbps</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>off street</t>
+  </si>
+  <si>
+    <t>252m</t>
+  </si>
+  <si>
+    <t>280m</t>
+  </si>
+  <si>
+    <t>196m</t>
+  </si>
+  <si>
+    <t>770m</t>
+  </si>
+  <si>
+    <t>672m</t>
+  </si>
+  <si>
+    <t>1km</t>
+  </si>
+  <si>
+    <t>2km</t>
+  </si>
+  <si>
+    <t>1.1 km</t>
+  </si>
+  <si>
+    <t>1.3 km</t>
+  </si>
+  <si>
+    <t>3 mins</t>
+  </si>
+  <si>
+    <t>14 mins</t>
+  </si>
+  <si>
+    <t>4 mins</t>
+  </si>
+  <si>
+    <t>https://www.sinclair-properties.com/search-results/brochure?id=c25f2670-c5f9-475d-9a04-6b52bf8b3134</t>
+  </si>
+  <si>
+    <t>Fully Furnished,Flat Screen TV,DVD Player,Fridge</t>
+  </si>
+  <si>
+    <t>4 Neptune House Olympian Court Lawrence Street York</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>parking space</t>
+  </si>
+  <si>
+    <t>422m</t>
+  </si>
+  <si>
+    <t>91m</t>
+  </si>
+  <si>
+    <t>219m</t>
+  </si>
+  <si>
+    <t>77m</t>
+  </si>
+  <si>
+    <t>2.6 km</t>
+  </si>
+  <si>
+    <t>3.0 km</t>
+  </si>
+  <si>
+    <t>6 mins</t>
+  </si>
+  <si>
+    <t>32 mins</t>
+  </si>
+  <si>
+    <t>21 mins</t>
+  </si>
+  <si>
+    <t>9 mins</t>
+  </si>
+  <si>
+    <t>https://www.sinclair-properties.com/search-results/brochure?id=783340a6-43d6-43d9-968a-5140644084a5</t>
+  </si>
+  <si>
+    <t>Fully Furnished,Double Glazing,Flat Screen TV,DVD Player,Dishwasher,Fridge</t>
+  </si>
+  <si>
+    <t>42 Siward Street Hull Road York</t>
+  </si>
+  <si>
+    <t xml:space="preserve">£120 pppw </t>
+  </si>
+  <si>
+    <t>£140 pppw</t>
+  </si>
+  <si>
+    <t>on street</t>
+  </si>
+  <si>
+    <t>178m</t>
+  </si>
+  <si>
+    <t>149m</t>
+  </si>
+  <si>
+    <t>135m</t>
+  </si>
+  <si>
+    <t>389m</t>
+  </si>
+  <si>
+    <t>237m</t>
+  </si>
+  <si>
+    <t>2.1 km</t>
+  </si>
+  <si>
+    <t>2.8 km</t>
+  </si>
+  <si>
+    <t>26 mins</t>
+  </si>
+  <si>
+    <t>20 mins</t>
+  </si>
+  <si>
+    <t>https://www.sinclair-properties.com/search-results/brochure?id=ab03c4ed-9ea4-4b24-80fb-4bd9fdbc75e0</t>
+  </si>
+  <si>
+    <t>Fully Furnished,Flat Screen TV,DVD Player,Burglar Alarm,Dishwasher,Fridge Freezer</t>
+  </si>
+  <si>
+    <t>136 Hull Road York</t>
+  </si>
+  <si>
+    <t xml:space="preserve">£116 pppw </t>
+  </si>
+  <si>
+    <t>£136 pppw</t>
+  </si>
+  <si>
+    <t>13/07/2020</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>224m</t>
+  </si>
+  <si>
+    <t>70m</t>
+  </si>
+  <si>
+    <t>42m</t>
+  </si>
+  <si>
+    <t>476m</t>
+  </si>
+  <si>
+    <t>434m</t>
+  </si>
+  <si>
+    <t>1.9 km</t>
+  </si>
+  <si>
+    <t>2.3 km</t>
+  </si>
+  <si>
+    <t>23 mins</t>
+  </si>
+  <si>
+    <t>7 mins</t>
+  </si>
+  <si>
+    <t>https://www.sinclair-properties.com/search-results/brochure?id=2fc70b0d-c8f0-40b2-be6e-f813453d0c24</t>
+  </si>
+  <si>
+    <t>Fully Furnished,Flat Screen TV,DVD Player,Sky Dish,Fridge</t>
+  </si>
+  <si>
+    <t>22 Norman Street Off Hull Road York</t>
+  </si>
+  <si>
+    <t xml:space="preserve">£115 pppw </t>
+  </si>
+  <si>
+    <t>£135 pppw</t>
+  </si>
+  <si>
+    <t>170m</t>
+  </si>
+  <si>
+    <t>220m</t>
+  </si>
+  <si>
+    <t>540m</t>
+  </si>
+  <si>
+    <t>2.5 km</t>
+  </si>
+  <si>
+    <t>22 mins</t>
+  </si>
+  <si>
+    <t>8 mins</t>
+  </si>
+  <si>
+    <t>https://www.sinclair-properties.com/search-results/brochure?id=fe80dbf5-c5d8-4aff-acdc-b68fa4d1d2f4</t>
+  </si>
+  <si>
+    <t>Fully Furnished,Double Glazing,Colour TV,DVD Player,Fridge</t>
+  </si>
+  <si>
+    <t>144 Hull Road York</t>
+  </si>
+  <si>
+    <t>110m</t>
+  </si>
+  <si>
+    <t>100m</t>
+  </si>
+  <si>
+    <t>20m</t>
+  </si>
+  <si>
+    <t>480m</t>
+  </si>
+  <si>
+    <t>460m</t>
+  </si>
+  <si>
+    <t>https://www.sinclair-properties.com/search-results/brochure?id=d0e7a216-3a93-4f52-9e93-3feb7632ccb4</t>
+  </si>
+  <si>
+    <t>Fully Furnished,Double Glazing,Flat Screen TV,DVD Player,Dishwasher,Fridge,Freezer</t>
+  </si>
+  <si>
+    <t>22 Willis Street Heslington Road York</t>
   </si>
   <si>
     <t xml:space="preserve">£114 pppw </t>
   </si>
   <si>
+    <t>£134 pppw</t>
+  </si>
+  <si>
+    <t>126m</t>
+  </si>
+  <si>
+    <t>112m</t>
+  </si>
+  <si>
+    <t>130m</t>
+  </si>
+  <si>
+    <t>140m</t>
+  </si>
+  <si>
+    <t>3.9 km</t>
+  </si>
+  <si>
+    <t>37 mins</t>
+  </si>
+  <si>
+    <t>18 mins</t>
+  </si>
+  <si>
+    <t>10 mins</t>
+  </si>
+  <si>
+    <t>https://www.sinclair-properties.com/search-results/brochure?id=15d3fdaf-1e4f-4ca1-a8a0-65fc8f56f2c9</t>
+  </si>
+  <si>
+    <t>Fully Furnished,Double Glazing,Flat Screen TV,DVD Player,Fridge,Freezer</t>
+  </si>
+  <si>
+    <t>18 Wolsley Street Heslington Road York</t>
+  </si>
+  <si>
+    <t>192m</t>
+  </si>
+  <si>
+    <t>136m</t>
+  </si>
+  <si>
+    <t>125m</t>
+  </si>
+  <si>
+    <t>882m</t>
+  </si>
+  <si>
+    <t>157m</t>
+  </si>
+  <si>
+    <t>2.9 km</t>
+  </si>
+  <si>
+    <t>3.8 km</t>
+  </si>
+  <si>
+    <t>36 mins</t>
+  </si>
+  <si>
+    <t>19 mins</t>
+  </si>
+  <si>
+    <t>https://www.sinclair-properties.com/search-results/brochure?id=ab3f46c6-2f0c-473f-b5b0-8a3b7c7b98e1</t>
+  </si>
+  <si>
+    <t>Fully Furnished,Double Glazing,Flat Screen TV,DVD Player,Sky Dish</t>
+  </si>
+  <si>
+    <t>11 Willis Street Heslington Road York</t>
+  </si>
+  <si>
+    <t>150m</t>
+  </si>
+  <si>
+    <t>https://www.sinclair-properties.com/search-results/brochure?id=ce252441-d29d-4a65-8f1d-9c1f702d5954</t>
+  </si>
+  <si>
+    <t>9 Willis Street Heslington Road York</t>
+  </si>
+  <si>
+    <t xml:space="preserve">£113 pppw </t>
+  </si>
+  <si>
+    <t>£133 pppw</t>
+  </si>
+  <si>
+    <t>https://www.sinclair-properties.com/search-results/brochure?id=2ec46251-b0b8-4110-af8c-08290d35be20</t>
+  </si>
+  <si>
+    <t>Fully Furnished,Flat Screen TV,DVD Player,Fridge,Freezer</t>
+  </si>
+  <si>
+    <t>32 Willis Street Heslington Road York</t>
+  </si>
+  <si>
+    <t xml:space="preserve">£112 pppw </t>
+  </si>
+  <si>
+    <t>£132 pppw</t>
+  </si>
+  <si>
+    <t>156m</t>
+  </si>
+  <si>
+    <t>756m</t>
+  </si>
+  <si>
+    <t>115m</t>
+  </si>
+  <si>
+    <t>38 mins</t>
+  </si>
+  <si>
+    <t>https://www.sinclair-properties.com/search-results/brochure?id=bb993db3-74de-4460-a772-e5416d8ef645</t>
+  </si>
+  <si>
+    <t>Fully Furnished,Double Glazing,Flat Screen TV,DVD Player,Fridge</t>
+  </si>
+  <si>
+    <t>19 Horsman Avenue Cemetery Road York</t>
+  </si>
+  <si>
+    <t>168m</t>
+  </si>
+  <si>
+    <t>215m</t>
+  </si>
+  <si>
+    <t>630m</t>
+  </si>
+  <si>
+    <t>183m</t>
+  </si>
+  <si>
+    <t>https://www.sinclair-properties.com/search-results/brochure?id=d3a51de7-80f6-4bc7-a320-d34e31074027</t>
+  </si>
+  <si>
+    <t>4 Melbourne Court Melbourne Street York</t>
+  </si>
+  <si>
+    <t xml:space="preserve">£111 pppw </t>
+  </si>
+  <si>
+    <t>£131 pppw</t>
+  </si>
+  <si>
+    <t>fibre &lt;70mbps</t>
+  </si>
+  <si>
+    <t>88m</t>
+  </si>
+  <si>
+    <t>175m</t>
+  </si>
+  <si>
+    <t>3.2 km</t>
+  </si>
+  <si>
+    <t>4.1 km</t>
+  </si>
+  <si>
+    <t>40 mins</t>
+  </si>
+  <si>
+    <t>12 mins</t>
+  </si>
+  <si>
+    <t>https://www.sinclair-properties.com/search-results/brochure?id=5972f602-2948-4d74-8726-1f4bb35412c0</t>
+  </si>
+  <si>
+    <t>Fully Furnished,Flat Screen TV,DVD Player,Dishwasher,Fridge</t>
+  </si>
+  <si>
+    <t>14 Willis Street Off Heslington Road York</t>
+  </si>
+  <si>
+    <t>https://www.sinclair-properties.com/search-results/brochure?id=420ed81b-c1f4-459b-8a8d-f6b8e5d1de4c</t>
+  </si>
+  <si>
+    <t>16 Lamel Street Hull Road York</t>
+  </si>
+  <si>
+    <t>154m</t>
+  </si>
+  <si>
+    <t>28m</t>
+  </si>
+  <si>
+    <t>448m</t>
+  </si>
+  <si>
+    <t>405m</t>
+  </si>
+  <si>
+    <t>25 mins</t>
+  </si>
+  <si>
+    <t>https://www.sinclair-properties.com/search-results/brochure?id=95600b31-74ba-4c93-82ad-d922851dda2d</t>
+  </si>
+  <si>
+    <t>17 Thief Lane Off Hull Road York</t>
+  </si>
+  <si>
+    <t xml:space="preserve">£109 pppw </t>
+  </si>
+  <si>
+    <t>£129 pppw</t>
+  </si>
+  <si>
+    <t>603m</t>
+  </si>
+  <si>
+    <t>339m</t>
+  </si>
+  <si>
+    <t>32m</t>
+  </si>
+  <si>
+    <t>359m</t>
+  </si>
+  <si>
+    <t>0km</t>
+  </si>
+  <si>
+    <t>3.1 km</t>
+  </si>
+  <si>
+    <t>28 mins</t>
+  </si>
+  <si>
+    <t>https://www.sinclair-properties.com/search-results/brochure?id=4679af8e-a23b-4d37-967c-d8324e41be8f</t>
+  </si>
+  <si>
+    <t>Fully Furnished,Double Glazing,Flat Screen TV,Fridge,Freezer,Microwave</t>
+  </si>
+  <si>
+    <t>8 Lamel Street Hull Road York</t>
+  </si>
+  <si>
+    <t>148m</t>
+  </si>
+  <si>
+    <t>26m</t>
+  </si>
+  <si>
+    <t>445m</t>
+  </si>
+  <si>
+    <t>401m</t>
+  </si>
+  <si>
+    <t>https://www.sinclair-properties.com/search-results/brochure?id=2575eac3-b57a-435e-8ebb-04f6003016bc</t>
+  </si>
+  <si>
+    <t>Fully Furnished,Double Glazing,Flat Screen TV,DVD Player,Fridge/Freezer,Microwave</t>
+  </si>
+  <si>
+    <t>40 Wellington Street Heslington Road York</t>
+  </si>
+  <si>
+    <t>245m</t>
+  </si>
+  <si>
+    <t>118m</t>
+  </si>
+  <si>
+    <t>153m</t>
+  </si>
+  <si>
+    <t>849m</t>
+  </si>
+  <si>
+    <t>3.7 km</t>
+  </si>
+  <si>
+    <t>35 mins</t>
+  </si>
+  <si>
+    <t>https://www.sinclair-properties.com/search-results/brochure?id=6f32d01c-4c97-4b05-81e6-86f8bee39bc7</t>
+  </si>
+  <si>
+    <t>Fully Furnished,Mains Fire Alarm,Double Glazing,Flat Screen TV,DVD Player,Sky Dish,Fridge</t>
+  </si>
+  <si>
+    <t>26 Lansdowne Terrace Lawrence Street York</t>
+  </si>
+  <si>
+    <t xml:space="preserve">£108 pppw </t>
+  </si>
+  <si>
     <t>£128 pppw</t>
   </si>
   <si>
-    <t>university of york</t>
-  </si>
-  <si>
-    <t>08/07/2019</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>virgin &lt;350mbps</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>off street</t>
-  </si>
-  <si>
-    <t>388m</t>
+    <t>university of york, city centre</t>
+  </si>
+  <si>
+    <t>225m</t>
+  </si>
+  <si>
+    <t>59m</t>
+  </si>
+  <si>
+    <t>47m</t>
+  </si>
+  <si>
+    <t>286m</t>
+  </si>
+  <si>
+    <t>3.3 km</t>
+  </si>
+  <si>
+    <t>https://www.sinclair-properties.com/search-results/brochure?id=8e38daf3-026f-483d-9360-15c6c6fe5b1f</t>
+  </si>
+  <si>
+    <t>Fully Furnished,Flat Screen TV,DVD Player,Double Glazing,Fridge Freezer,Microwave</t>
+  </si>
+  <si>
+    <t>6 Cycle Street Hull Road York</t>
+  </si>
+  <si>
+    <t>230m</t>
+  </si>
+  <si>
+    <t>80m</t>
+  </si>
+  <si>
+    <t>121m</t>
+  </si>
+  <si>
+    <t>2.0 km</t>
+  </si>
+  <si>
+    <t>2.4 km</t>
+  </si>
+  <si>
+    <t>24 mins</t>
+  </si>
+  <si>
+    <t>https://www.sinclair-properties.com/search-results/brochure?id=8532e5b0-6c6e-415a-b4b2-549f52b0e1ea</t>
+  </si>
+  <si>
+    <t>Fully Furnished,Double Glazing,Colour TV,DVD Player,Dishwasher</t>
+  </si>
+  <si>
+    <t>29 Barstow Avenue Hull Road York</t>
+  </si>
+  <si>
+    <t>dining kitchen</t>
+  </si>
+  <si>
+    <t>239m</t>
+  </si>
+  <si>
+    <t>251m</t>
+  </si>
+  <si>
+    <t>303m</t>
+  </si>
+  <si>
+    <t>2.7 km</t>
+  </si>
+  <si>
+    <t>5 mins</t>
+  </si>
+  <si>
+    <t>https://www.sinclair-properties.com/search-results/brochure?id=10d57288-6d6a-4929-95fd-e493cadf95d6</t>
+  </si>
+  <si>
+    <t>148 Hull Road York</t>
+  </si>
+  <si>
+    <t>155m</t>
+  </si>
+  <si>
+    <t>485m</t>
+  </si>
+  <si>
+    <t>414m</t>
+  </si>
+  <si>
+    <t>https://www.sinclair-properties.com/search-results/brochure?id=30e67f58-23d2-4c94-9be6-1f2067ae9a00</t>
+  </si>
+  <si>
+    <t>25 Barstow Avenue Off Hull Road York</t>
+  </si>
+  <si>
+    <t>238m</t>
+  </si>
+  <si>
+    <t>294m</t>
+  </si>
+  <si>
+    <t>29 mins</t>
+  </si>
+  <si>
+    <t>https://www.sinclair-properties.com/search-results/brochure?id=e59ad666-f7a0-47d2-b66c-2148b4001740</t>
+  </si>
+  <si>
+    <t>Fully Furnished,Double Glazing,Flat Screen TV,DVD Player,Games Console (Wii),Fridge,Freezer</t>
+  </si>
+  <si>
+    <t>6 Arthur Street Off Lawrence Street York</t>
+  </si>
+  <si>
+    <t>532m</t>
+  </si>
+  <si>
+    <t>462m</t>
+  </si>
+  <si>
+    <t>546m</t>
+  </si>
+  <si>
+    <t>588m</t>
+  </si>
+  <si>
+    <t>34 mins</t>
+  </si>
+  <si>
+    <t>https://www.sinclair-properties.com/search-results/brochure?id=45722784-b938-4d1e-827a-db21ff14927c</t>
+  </si>
+  <si>
+    <t>Fully Furnished,Double Glazing,Flat Screen TV,Fridge</t>
+  </si>
+  <si>
+    <t>7 Hartoft Street Fulford York</t>
+  </si>
+  <si>
+    <t>adsl &lt;10mbps</t>
+  </si>
+  <si>
+    <t>dining room</t>
+  </si>
+  <si>
+    <t>350m</t>
+  </si>
+  <si>
+    <t>270m</t>
+  </si>
+  <si>
+    <t>3.5 km</t>
+  </si>
+  <si>
+    <t>4.5 km</t>
+  </si>
+  <si>
+    <t>43 mins</t>
+  </si>
+  <si>
+    <t>13 mins</t>
+  </si>
+  <si>
+    <t>https://www.sinclair-properties.com/search-results/brochure?id=afd75d70-0cc0-4fdd-8ab0-d45a3d4ba23f</t>
+  </si>
+  <si>
+    <t>Fully Furnished,Colour TV,DVD Player,Sky Dish,Fridge</t>
+  </si>
+  <si>
+    <t>4 Cycle Street Hull Road York</t>
+  </si>
+  <si>
+    <t>78m</t>
+  </si>
+  <si>
+    <t>117m</t>
+  </si>
+  <si>
+    <t>https://www.sinclair-properties.com/search-results/brochure?id=310d9811-eaa7-4fb2-b549-ec4901de6359</t>
+  </si>
+  <si>
+    <t>Fully Furnished,Double Glazing,TV,DVD Player,Fridge</t>
+  </si>
+  <si>
+    <t>9 Anson Drive Fulford York</t>
+  </si>
+  <si>
+    <t xml:space="preserve">£107 pppw </t>
+  </si>
+  <si>
+    <t>£127 pppw</t>
+  </si>
+  <si>
+    <t>714m</t>
+  </si>
+  <si>
+    <t>3km</t>
+  </si>
+  <si>
+    <t>4.4 km</t>
+  </si>
+  <si>
+    <t>30 mins</t>
+  </si>
+  <si>
+    <t>https://www.sinclair-properties.com/search-results/brochure?id=3c31eaea-6759-4221-b7df-ac64b04c2563</t>
+  </si>
+  <si>
+    <t>5 Gordon Street Off Heslington Road York</t>
+  </si>
+  <si>
+    <t xml:space="preserve">£105 pppw </t>
+  </si>
+  <si>
+    <t>£125 pppw</t>
+  </si>
+  <si>
+    <t>84m</t>
+  </si>
+  <si>
+    <t>https://www.sinclair-properties.com/search-results/brochure?id=f9c966bf-57e2-4a7c-9a29-c1211feac8a7</t>
+  </si>
+  <si>
+    <t>26 Farndale Avenue Osbaldwick York</t>
+  </si>
+  <si>
+    <t xml:space="preserve">£104 pppw </t>
+  </si>
+  <si>
+    <t>£124 pppw</t>
+  </si>
+  <si>
+    <t>study</t>
   </si>
   <si>
     <t>142m</t>
   </si>
   <si>
-    <t>68m</t>
-  </si>
-  <si>
-    <t>380m</t>
-  </si>
-  <si>
-    <t>129m</t>
-  </si>
-  <si>
-    <t>0km</t>
-  </si>
-  <si>
-    <t>2km</t>
-  </si>
-  <si>
-    <t>2.3 km</t>
-  </si>
-  <si>
-    <t>1.0 km</t>
-  </si>
-  <si>
-    <t>28 mins</t>
-  </si>
-  <si>
-    <t>13 mins</t>
-  </si>
-  <si>
-    <t>12 mins</t>
-  </si>
-  <si>
-    <t>https://www.sinclair-properties.com/search-results/brochure?id=40ca0712-f7c9-4cd1-a151-95e7c4036d57</t>
-  </si>
-  <si>
-    <t>Fully Furnished,Double Glazing,Burglar Alarm,Flat Screen TV,DVD Player,Fully Equipped Kitchen,Fridge/Freezer,Dishwasher</t>
-  </si>
-  <si>
-    <t>68 Thief Lane Hull Road York</t>
-  </si>
-  <si>
-    <t>05/07/2019</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>183m</t>
-  </si>
-  <si>
-    <t>158m</t>
-  </si>
-  <si>
-    <t>166m</t>
-  </si>
-  <si>
-    <t>381m</t>
-  </si>
-  <si>
-    <t>241m</t>
-  </si>
-  <si>
-    <t>2.1 km</t>
-  </si>
-  <si>
-    <t>1.3 km</t>
-  </si>
-  <si>
-    <t>25 mins</t>
-  </si>
-  <si>
-    <t>16 mins</t>
+    <t>4km</t>
+  </si>
+  <si>
+    <t>1.2 km</t>
+  </si>
+  <si>
+    <t>0.8 km</t>
+  </si>
+  <si>
+    <t>15 mins</t>
+  </si>
+  <si>
+    <t>https://www.sinclair-properties.com/search-results/brochure?id=cae6c07c-079a-431b-a30b-9d1e68f279a6</t>
+  </si>
+  <si>
+    <t>Fully Furnished,Double Glazing,Colour TV,DVD Player,Fridge,Freezer,Microwave</t>
+  </si>
+  <si>
+    <t>23 Melbourne Street Fishergate York</t>
+  </si>
+  <si>
+    <t xml:space="preserve">£103 pppw </t>
+  </si>
+  <si>
+    <t>£123 pppw</t>
+  </si>
+  <si>
+    <t>permit</t>
+  </si>
+  <si>
+    <t>144m</t>
+  </si>
+  <si>
+    <t>https://www.sinclair-properties.com/search-results/brochure?id=dd70d911-06b7-43c3-b437-b2a73e56b49b</t>
+  </si>
+  <si>
+    <t>47 Wellington Street Heslington Road York</t>
+  </si>
+  <si>
+    <t>266m</t>
+  </si>
+  <si>
+    <t>868m</t>
   </si>
   <si>
     <t>17 mins</t>
   </si>
   <si>
-    <t>https://www.sinclair-properties.com/search-results/brochure?id=8cc7f24f-6a60-4b5a-9112-766ac3f4c821</t>
-  </si>
-  <si>
-    <t>Fully Furnished,Double Glazing,42` Flat Screen TV, DVD Player,Dishwasher,Fridge,Freezer</t>
-  </si>
-  <si>
-    <t>32 The Crescent Heslington York</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>dining room</t>
-  </si>
-  <si>
-    <t>448m</t>
-  </si>
-  <si>
-    <t>644m</t>
-  </si>
-  <si>
-    <t>560m</t>
+    <t>https://www.sinclair-properties.com/search-results/brochure?id=50a3f4e9-2285-492a-b3cc-2ba18bb56a5a</t>
+  </si>
+  <si>
+    <t>12 Cycle Street Off Hull Road York</t>
+  </si>
+  <si>
+    <t xml:space="preserve">£102 pppw </t>
+  </si>
+  <si>
+    <t>£122 pppw</t>
+  </si>
+  <si>
+    <t>578m</t>
+  </si>
+  <si>
+    <t>https://www.sinclair-properties.com/search-results/brochure?id=b80bda6a-eb1f-407d-88a3-affc5bd9e33e</t>
+  </si>
+  <si>
+    <t>15A Hull Road York</t>
+  </si>
+  <si>
+    <t>98m</t>
+  </si>
+  <si>
+    <t>38m</t>
+  </si>
+  <si>
+    <t>30m</t>
+  </si>
+  <si>
+    <t>https://www.sinclair-properties.com/search-results/brochure?id=1813cf79-5e8b-4e3e-9ea1-5b6b73010a4a</t>
+  </si>
+  <si>
+    <t>13 Hartoft Street Fishergate York</t>
+  </si>
+  <si>
+    <t>351m</t>
+  </si>
+  <si>
+    <t>172m</t>
+  </si>
+  <si>
+    <t>272m</t>
+  </si>
+  <si>
+    <t>https://www.sinclair-properties.com/search-results/brochure?id=b62604a2-cb93-4b04-86bd-3be3e63febcb</t>
+  </si>
+  <si>
+    <t>20 Wellington Street York</t>
+  </si>
+  <si>
+    <t>138m</t>
+  </si>
+  <si>
+    <t>86m</t>
+  </si>
+  <si>
+    <t>https://www.sinclair-properties.com/search-results/brochure?id=ac9d2b9a-0153-45b3-89a7-87e09f72ac95</t>
+  </si>
+  <si>
+    <t>11 Chaucer Street Lawrence Street York</t>
+  </si>
+  <si>
+    <t xml:space="preserve">£100 pppw </t>
+  </si>
+  <si>
+    <t>£120 pppw</t>
+  </si>
+  <si>
+    <t>504m</t>
+  </si>
+  <si>
+    <t>308m</t>
+  </si>
+  <si>
+    <t>524m</t>
+  </si>
+  <si>
+    <t>https://www.sinclair-properties.com/search-results/brochure?id=c875d432-4491-4e04-8e00-42af39e32f43</t>
+  </si>
+  <si>
+    <t>Fully Furnished,Colour TV,DVD Player,Fridge,Freezer</t>
+  </si>
+  <si>
+    <t>39 Farrar Street Lawrence Street York</t>
+  </si>
+  <si>
+    <t xml:space="preserve">£97 pppw </t>
+  </si>
+  <si>
+    <t>£117 pppw</t>
+  </si>
+  <si>
+    <t>265m</t>
+  </si>
+  <si>
+    <t>616m</t>
+  </si>
+  <si>
+    <t>186m</t>
+  </si>
+  <si>
+    <t>3.4 km</t>
+  </si>
+  <si>
+    <t>11 mins</t>
+  </si>
+  <si>
+    <t>https://www.sinclair-properties.com/search-results/brochure?id=0c5eb122-2134-49b9-84c8-97b3ef24c7fc</t>
+  </si>
+  <si>
+    <t>20 Main Street Fulford York</t>
+  </si>
+  <si>
+    <t xml:space="preserve">£94 pppw </t>
+  </si>
+  <si>
+    <t>£114 pppw</t>
   </si>
   <si>
     <t>999m</t>
   </si>
   <si>
-    <t>3km</t>
-  </si>
-  <si>
-    <t>1.4 km</t>
-  </si>
-  <si>
-    <t>1.2 km</t>
-  </si>
-  <si>
-    <t>https://www.sinclair-properties.com/search-results/brochure?id=70fe5d63-1cd5-47b2-9471-f848bfaf7a37</t>
-  </si>
-  <si>
-    <t>Fully Furnished,Double Glazing,6 En-Suite Shower Rooms,Energy Efficient Biomass Boiler,Solar Thermal Heating Panels,A-Rated Energy Performance Certificate,Flat Screen TV,DVD Player</t>
-  </si>
-  <si>
-    <t>111 Newland Park Drive Hull Road York</t>
-  </si>
-  <si>
-    <t>dining kitchen</t>
-  </si>
-  <si>
-    <t>646m</t>
-  </si>
-  <si>
-    <t>430m</t>
-  </si>
-  <si>
-    <t>417m</t>
-  </si>
-  <si>
-    <t>697m</t>
-  </si>
-  <si>
-    <t>1km</t>
-  </si>
-  <si>
-    <t>1.9 km</t>
-  </si>
-  <si>
-    <t>1.5 km</t>
-  </si>
-  <si>
-    <t>23 mins</t>
-  </si>
-  <si>
-    <t>19 mins</t>
-  </si>
-  <si>
-    <t>20 mins</t>
-  </si>
-  <si>
-    <t>https://www.sinclair-properties.com/search-results/brochure?id=54d9b54c-5fdd-4932-896f-a4ec47a2964f</t>
-  </si>
-  <si>
-    <t>Fully Furnished,All En-Suite Bedrooms,Double Glazing,Flat Screen TV,DVD Player,Dishwasher,Fridge,Freezer</t>
-  </si>
-  <si>
-    <t>12 Millfield Lane Hull Road York</t>
-  </si>
-  <si>
-    <t>university of york, city centre</t>
-  </si>
-  <si>
-    <t>on street</t>
-  </si>
-  <si>
-    <t>48m</t>
-  </si>
-  <si>
-    <t>157m</t>
-  </si>
-  <si>
-    <t>96m</t>
-  </si>
-  <si>
-    <t>283m</t>
-  </si>
-  <si>
-    <t>2.2 km</t>
-  </si>
-  <si>
-    <t>27 mins</t>
-  </si>
-  <si>
-    <t>https://www.sinclair-properties.com/search-results/brochure?id=d68599a7-28cd-4f75-8c4b-228c29d3f400</t>
-  </si>
-  <si>
-    <t>Fully Furnished,Double Glazing,Flat Screen TV, DVD Player,Burglar Alarm,Garden</t>
-  </si>
-  <si>
-    <t>109 Newland Park Drive Hull Road York</t>
-  </si>
-  <si>
-    <t>653m</t>
-  </si>
-  <si>
-    <t>435m</t>
-  </si>
-  <si>
-    <t>422m</t>
-  </si>
-  <si>
-    <t>702m</t>
-  </si>
-  <si>
-    <t>https://www.sinclair-properties.com/search-results/brochure?id=0c67f969-2517-4195-99c8-c821a9452064</t>
-  </si>
-  <si>
-    <t>Fully Furnished,All En-Suite Bedrooms,Double Glazing,Flat Screen TV,DVD Player,Dining Table,Dishwasher,Fridge</t>
-  </si>
-  <si>
-    <t>3 Apollo House Olympian Court York</t>
-  </si>
-  <si>
-    <t>fibre &lt;70mbps</t>
-  </si>
-  <si>
-    <t>parking space</t>
-  </si>
-  <si>
-    <t>91m</t>
-  </si>
-  <si>
-    <t>219m</t>
-  </si>
-  <si>
-    <t>53m</t>
-  </si>
-  <si>
-    <t>62m</t>
-  </si>
-  <si>
-    <t>2.7 km</t>
+    <t>3.6 km</t>
+  </si>
+  <si>
+    <t>5.0 km</t>
+  </si>
+  <si>
+    <t>44 mins</t>
+  </si>
+  <si>
+    <t>https://www.sinclair-properties.com/search-results/brochure?id=209927ac-eb17-473e-9bac-a04db61685cc</t>
+  </si>
+  <si>
+    <t>5 Sterne Avenue Melrosegate York</t>
+  </si>
+  <si>
+    <t xml:space="preserve">£90 pppw </t>
+  </si>
+  <si>
+    <t>£110 pppw</t>
+  </si>
+  <si>
+    <t>university of york, york st john university</t>
+  </si>
+  <si>
+    <t>290m</t>
+  </si>
+  <si>
+    <t>510m</t>
   </si>
   <si>
     <t>33 mins</t>
   </si>
   <si>
-    <t>https://www.sinclair-properties.com/search-results/brochure?id=3cf3da85-c4b7-4be6-b1ca-b57c5df41baf</t>
-  </si>
-  <si>
-    <t>Fully Furnished,Double Glazing,Flat Screen TV,Burglar Alarm,Dishwasher,American Style Fridge/Freezer</t>
-  </si>
-  <si>
-    <t>15 School Lane Heslington York</t>
-  </si>
-  <si>
-    <t xml:space="preserve">£112 pppw </t>
-  </si>
-  <si>
-    <t>£126 pppw</t>
-  </si>
-  <si>
-    <t>garage</t>
-  </si>
-  <si>
-    <t>338m</t>
-  </si>
-  <si>
-    <t>385m</t>
-  </si>
-  <si>
-    <t>687m</t>
-  </si>
-  <si>
-    <t>340m</t>
-  </si>
-  <si>
-    <t>1.1 km</t>
-  </si>
-  <si>
-    <t>15 mins</t>
-  </si>
-  <si>
-    <t>14 mins</t>
-  </si>
-  <si>
-    <t>11 mins</t>
-  </si>
-  <si>
-    <t>https://www.sinclair-properties.com/search-results/brochure?id=d97d65dd-09f6-4dc5-b8cc-3ad1e5f6d375</t>
-  </si>
-  <si>
-    <t>Fully Furnished,Flat Screen TV,DVD Player,Fridge,Freezer</t>
-  </si>
-  <si>
-    <t>41 Lilac Avenue York</t>
-  </si>
-  <si>
-    <t xml:space="preserve">£110 pppw </t>
-  </si>
-  <si>
-    <t>£124 pppw</t>
-  </si>
-  <si>
-    <t>12/08/2019</t>
-  </si>
-  <si>
-    <t>conservatory</t>
-  </si>
-  <si>
-    <t>562m</t>
-  </si>
-  <si>
-    <t>402m</t>
-  </si>
-  <si>
-    <t>212m</t>
-  </si>
-  <si>
-    <t>843m</t>
-  </si>
-  <si>
-    <t>https://www.sinclair-properties.com/search-results/brochure?id=cd2ff707-09b1-46df-99b1-7731fcf3a03d</t>
-  </si>
-  <si>
-    <t>Fully Furnished,Double Glazing,Flat Screen TV,Burglar Alarm,Dishwasher,American Style Fridge/Freezer,Fridge</t>
-  </si>
-  <si>
-    <t>249 Hull Road York</t>
-  </si>
-  <si>
-    <t>151m</t>
-  </si>
-  <si>
-    <t>203m</t>
-  </si>
-  <si>
-    <t>295m</t>
-  </si>
-  <si>
-    <t>146m</t>
-  </si>
-  <si>
-    <t>5km</t>
-  </si>
-  <si>
-    <t>1.8 km</t>
-  </si>
-  <si>
-    <t>https://www.sinclair-properties.com/search-results/brochure?id=8f361c76-32d5-4c65-b5ee-5dda4a1d48b9</t>
-  </si>
-  <si>
-    <t>Fully Furnished,Double Glazing,Flat Screen TV`s in all bedrooms,Flat Screen TV,DVD Player,Dishwasher,Fridge</t>
-  </si>
-  <si>
-    <t>78 Thief Lane York</t>
-  </si>
-  <si>
-    <t xml:space="preserve">£108 pppw </t>
-  </si>
-  <si>
-    <t>£122 pppw</t>
-  </si>
-  <si>
-    <t>173m</t>
-  </si>
-  <si>
-    <t>160m</t>
-  </si>
-  <si>
-    <t>387m</t>
-  </si>
-  <si>
-    <t>269m</t>
-  </si>
-  <si>
-    <t>2.0 km</t>
-  </si>
-  <si>
-    <t>https://www.sinclair-properties.com/search-results/brochure?id=f05b015c-6f55-40af-91e6-1c32524055f2</t>
-  </si>
-  <si>
-    <t>Fully Furnished,Double Glazing,Flat Screen TV,DVD Player,Fridge Freezer,Microwave</t>
-  </si>
-  <si>
-    <t>Bridge Farm Main Street Heslington York</t>
-  </si>
-  <si>
-    <t xml:space="preserve">£105 pppw </t>
-  </si>
-  <si>
-    <t>£119 pppw</t>
-  </si>
-  <si>
-    <t>30m</t>
-  </si>
-  <si>
-    <t>80m</t>
-  </si>
-  <si>
-    <t>20m</t>
-  </si>
-  <si>
-    <t>0.9 km</t>
-  </si>
-  <si>
-    <t>https://www.sinclair-properties.com/search-results/brochure?id=5549d6a2-36ad-48f6-b527-1c7147f5f222</t>
-  </si>
-  <si>
-    <t>Fully Furnished,TV,Fridge,Freezer</t>
-  </si>
-  <si>
-    <t>73 Millfield Lane York</t>
-  </si>
-  <si>
-    <t>359m</t>
-  </si>
-  <si>
-    <t>344m</t>
-  </si>
-  <si>
-    <t>213m</t>
-  </si>
-  <si>
-    <t>343m</t>
-  </si>
-  <si>
-    <t>https://www.sinclair-properties.com/search-results/brochure?id=6864d682-0558-4ebe-99d4-ff60e78bece9</t>
+    <t>https://www.sinclair-properties.com/search-results/brochure?id=8c720ca9-650f-464f-bb85-67e485b49e68</t>
+  </si>
+  <si>
+    <t>4 Sterne Avenue York</t>
+  </si>
+  <si>
+    <t>https://www.sinclair-properties.com/search-results/brochure?id=1c618599-b61c-456c-839c-99f72b31a055</t>
   </si>
   <si>
     <t>Fully Furnished,Double Glazing,Flat Screen TV,DVD Player,Gardener inc in rent,Fridge,Freezer</t>
-  </si>
-  <si>
-    <t>34 Thief Lane Off Hull Road York</t>
-  </si>
-  <si>
-    <t>674m</t>
-  </si>
-  <si>
-    <t>289m</t>
-  </si>
-  <si>
-    <t>309m</t>
-  </si>
-  <si>
-    <t>465m</t>
-  </si>
-  <si>
-    <t>https://www.sinclair-properties.com/search-results/brochure?id=35b5c01a-6a65-4b58-aecb-60f3aef3d2b9</t>
-  </si>
-  <si>
-    <t>Fully Furnished,Double Glazing,Flat Screen TV,DVD Player,Dishwasher,Fridge</t>
-  </si>
-  <si>
-    <t>38 Belle Vue Street Off Heslington Road York</t>
-  </si>
-  <si>
-    <t>10/07/2019</t>
-  </si>
-  <si>
-    <t>322m</t>
-  </si>
-  <si>
-    <t>250m</t>
-  </si>
-  <si>
-    <t>182m</t>
-  </si>
-  <si>
-    <t>152m</t>
-  </si>
-  <si>
-    <t>260m</t>
-  </si>
-  <si>
-    <t>2.9 km</t>
-  </si>
-  <si>
-    <t>35 mins</t>
-  </si>
-  <si>
-    <t>https://www.sinclair-properties.com/search-results/brochure?id=d14b3852-1529-4b8e-b471-36bd5dcaf749</t>
-  </si>
-  <si>
-    <t>Fully Furnished,37` Flat Screen TV,Built in Freeview,DVD Player,Fridge,Freezer</t>
-  </si>
-  <si>
-    <t>11 Heathmoor Drive Fulford York</t>
-  </si>
-  <si>
-    <t>964m</t>
-  </si>
-  <si>
-    <t>795m</t>
-  </si>
-  <si>
-    <t>342m</t>
-  </si>
-  <si>
-    <t>977m</t>
-  </si>
-  <si>
-    <t>29 mins</t>
-  </si>
-  <si>
-    <t>24 mins</t>
-  </si>
-  <si>
-    <t>https://www.sinclair-properties.com/search-results/brochure?id=0b5d16bf-0524-471c-84b5-63e140c1bf7e</t>
-  </si>
-  <si>
-    <t>Fully Furnished,All En-suite Bedrooms,Double Glazing,Flat Screen TV,DVD Player,Dishwasher,Fridge</t>
-  </si>
-  <si>
-    <t>23 The Crescent Heslington York</t>
-  </si>
-  <si>
-    <t xml:space="preserve">£104 pppw </t>
-  </si>
-  <si>
-    <t>£118 pppw</t>
-  </si>
-  <si>
-    <t>544m</t>
-  </si>
-  <si>
-    <t>550m</t>
-  </si>
-  <si>
-    <t>453m</t>
-  </si>
-  <si>
-    <t>https://www.sinclair-properties.com/search-results/brochure?id=a68cb6ac-c8ec-421f-899f-1c94468e80c1</t>
-  </si>
-  <si>
-    <t>Fully Furnished,Double Glazing,Wall Insulation,Loft Insulation,Energy Efficient,Flat Screen TV,DVD Player,Sky Dish,Dishwasher,Breakfast Bar</t>
-  </si>
-  <si>
-    <t>10 Eastfield Court Badger Hill York</t>
-  </si>
-  <si>
-    <t>87m</t>
-  </si>
-  <si>
-    <t>88m</t>
-  </si>
-  <si>
-    <t>78m</t>
-  </si>
-  <si>
-    <t>98m</t>
-  </si>
-  <si>
-    <t>1m</t>
-  </si>
-  <si>
-    <t>18 mins</t>
-  </si>
-  <si>
-    <t>9 mins</t>
-  </si>
-  <si>
-    <t>https://www.sinclair-properties.com/search-results/brochure?id=fdf7cb25-76f9-4287-910e-6cb899fcff29</t>
-  </si>
-  <si>
-    <t>47 Windmill Lane Heslington York</t>
-  </si>
-  <si>
-    <t xml:space="preserve">£102 pppw </t>
-  </si>
-  <si>
-    <t>£116 pppw</t>
-  </si>
-  <si>
-    <t>518m</t>
-  </si>
-  <si>
-    <t>994m</t>
-  </si>
-  <si>
-    <t>434m</t>
-  </si>
-  <si>
-    <t>812m</t>
-  </si>
-  <si>
-    <t>https://www.sinclair-properties.com/search-results/brochure?id=7f0abe99-1a25-4dfe-907f-744559f8cd28</t>
-  </si>
-  <si>
-    <t>Fully Furnished,Double Glazing,Flat Screen TV,DVD Player,Fridge,Freezer</t>
-  </si>
-  <si>
-    <t>14 Low Mill Close Badger Hill York</t>
-  </si>
-  <si>
-    <t>523m</t>
-  </si>
-  <si>
-    <t>556m</t>
-  </si>
-  <si>
-    <t>4km</t>
-  </si>
-  <si>
-    <t>0.7 km</t>
-  </si>
-  <si>
-    <t>8 mins</t>
-  </si>
-  <si>
-    <t>https://www.sinclair-properties.com/search-results/brochure?id=267ccb4f-a20a-423f-98fa-12ef345e0a91</t>
-  </si>
-  <si>
-    <t>96 Newland Park Drive York</t>
-  </si>
-  <si>
-    <t xml:space="preserve">£100 pppw </t>
-  </si>
-  <si>
-    <t>£114 pppw</t>
-  </si>
-  <si>
-    <t>store room</t>
-  </si>
-  <si>
-    <t>686m</t>
-  </si>
-  <si>
-    <t>476m</t>
-  </si>
-  <si>
-    <t>854m</t>
-  </si>
-  <si>
-    <t>875m</t>
-  </si>
-  <si>
-    <t>https://www.sinclair-properties.com/search-results/brochure?id=4f924dc9-8f91-43a9-ad45-5eea8af602fe</t>
-  </si>
-  <si>
-    <t>Fully Furnished,TV,DVD Player,Gardener inc in rent,Fridge,Freezer</t>
-  </si>
-  <si>
-    <t>Patch House Main Street Heslington York</t>
-  </si>
-  <si>
-    <t xml:space="preserve">£98 pppw </t>
-  </si>
-  <si>
-    <t>£112 pppw</t>
-  </si>
-  <si>
-    <t>utility</t>
-  </si>
-  <si>
-    <t>59m</t>
-  </si>
-  <si>
-    <t>67m</t>
-  </si>
-  <si>
-    <t>189m</t>
-  </si>
-  <si>
-    <t>0.5 km</t>
-  </si>
-  <si>
-    <t>7 mins</t>
-  </si>
-  <si>
-    <t>https://www.sinclair-properties.com/search-results/brochure?id=1c328abe-8c53-4789-b84c-e679d6a94d6f</t>
-  </si>
-  <si>
-    <t>Fully Furnished,Double Glazing,Flat Screen TV,DVD Player,Fridge,Freezer,Microwave</t>
-  </si>
-  <si>
-    <t>42 Heatherbank Osbaldwick York</t>
-  </si>
-  <si>
-    <t xml:space="preserve">£90 pppw </t>
-  </si>
-  <si>
-    <t>£104 pppw</t>
-  </si>
-  <si>
-    <t>896m</t>
-  </si>
-  <si>
-    <t>392m</t>
-  </si>
-  <si>
-    <t>462m</t>
-  </si>
-  <si>
-    <t>2.4 km</t>
-  </si>
-  <si>
-    <t>https://www.sinclair-properties.com/search-results/brochure?id=562982ce-ec0f-4e4e-84d8-c8148592e046</t>
-  </si>
-  <si>
-    <t>Fully Furnished,Double Glazing,Flat Screen TV,DVD Player,Dishwasher,Fridge,Freezer</t>
-  </si>
-  <si>
-    <t>5 Broughton Way Osbaldwick York</t>
-  </si>
-  <si>
-    <t xml:space="preserve">£88 pppw </t>
-  </si>
-  <si>
-    <t>£102 pppw</t>
-  </si>
-  <si>
-    <t>238m</t>
-  </si>
-  <si>
-    <t>1.7 km</t>
-  </si>
-  <si>
-    <t>21 mins</t>
-  </si>
-  <si>
-    <t>https://www.sinclair-properties.com/search-results/brochure?id=2b3ab527-7119-421a-8b48-5f781e4bf4a0</t>
-  </si>
-  <si>
-    <t>1 Tranby Avenue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">£85 pppw </t>
-  </si>
-  <si>
-    <t>£100 pppw</t>
-  </si>
-  <si>
-    <t>30/08/2019</t>
-  </si>
-  <si>
-    <t>826m</t>
-  </si>
-  <si>
-    <t>56m</t>
-  </si>
-  <si>
-    <t>252m</t>
-  </si>
-  <si>
-    <t>574m</t>
-  </si>
-  <si>
-    <t>8 Wensleydale Drive Osbaldwick York</t>
-  </si>
-  <si>
-    <t xml:space="preserve">£84 pppw </t>
-  </si>
-  <si>
-    <t>£98 pppw</t>
-  </si>
-  <si>
-    <t>990m</t>
-  </si>
-  <si>
-    <t>490m</t>
-  </si>
-  <si>
-    <t>350m</t>
-  </si>
-  <si>
-    <t>532m</t>
-  </si>
-  <si>
-    <t>https://www.sinclair-properties.com/search-results/brochure?id=3502466d-7be9-4190-a4aa-96bca63bad65</t>
-  </si>
-  <si>
-    <t>Fully Furnished,Double Glazing,FLat Screen TV,DVD Player,Dishwasher,Fridge</t>
-  </si>
-  <si>
-    <t>17 Beckett Drive Osbaldwick York</t>
-  </si>
-  <si>
-    <t xml:space="preserve">£82 pppw </t>
-  </si>
-  <si>
-    <t>£96 pppw</t>
-  </si>
-  <si>
-    <t>406m</t>
-  </si>
-  <si>
-    <t>1.6 km</t>
-  </si>
-  <si>
-    <t>3.0 km</t>
-  </si>
-  <si>
-    <t>37 mins</t>
-  </si>
-  <si>
-    <t>https://www.sinclair-properties.com/search-results/brochure?id=27f6fe87-308d-4d98-a21b-faaf0e697f9d</t>
-  </si>
-  <si>
-    <t>Fully Furnished,Double Glazing,Flat Screen TV,DVD Player,Dishwasher</t>
-  </si>
-  <si>
-    <t>72 Nunthorpe Road Off Scarcroft Road York</t>
-  </si>
-  <si>
-    <t xml:space="preserve">£78 pppw </t>
-  </si>
-  <si>
-    <t>£92 pppw</t>
-  </si>
-  <si>
-    <t>university of york, york st john university, city centre</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>permit</t>
-  </si>
-  <si>
-    <t>120m</t>
-  </si>
-  <si>
-    <t>400m</t>
-  </si>
-  <si>
-    <t>150m</t>
-  </si>
-  <si>
-    <t>90m</t>
-  </si>
-  <si>
-    <t>4.4 km</t>
-  </si>
-  <si>
-    <t>3.1 km</t>
-  </si>
-  <si>
-    <t>55 mins</t>
-  </si>
-  <si>
-    <t>39 mins</t>
-  </si>
-  <si>
-    <t>26 mins</t>
-  </si>
-  <si>
-    <t>https://www.sinclair-properties.com/search-results/brochure?id=24ba25a5-7bb1-433b-817a-7c7df90dc60e</t>
-  </si>
-  <si>
-    <t>Fully Furnished,Colour TV,DVD Player,Fridge</t>
-  </si>
-  <si>
-    <t>8A Giles Avenue Heworth York</t>
-  </si>
-  <si>
-    <t xml:space="preserve">£64 pppw </t>
-  </si>
-  <si>
-    <t>£78 pppw</t>
-  </si>
-  <si>
-    <t>university of york, york st john university</t>
-  </si>
-  <si>
-    <t>202m</t>
-  </si>
-  <si>
-    <t>612m</t>
-  </si>
-  <si>
-    <t>712m</t>
-  </si>
-  <si>
-    <t>583m</t>
-  </si>
-  <si>
-    <t>2.6 km</t>
-  </si>
-  <si>
-    <t>36 mins</t>
-  </si>
-  <si>
-    <t>https://www.sinclair-properties.com/search-results/brochure?id=9d977342-0ac1-4c4c-92a8-64a7de22e77b</t>
   </si>
 </sst>
 </file>
@@ -1363,7 +1465,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:AE30"/>
+  <dimension ref="A2:AE42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1469,7 +1571,7 @@
         <v>31</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
         <v>32</v>
@@ -1496,13 +1598,13 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N3">
         <v>2</v>
@@ -1549,10 +1651,13 @@
       <c r="AB3" t="s">
         <v>51</v>
       </c>
-      <c r="AC3" s="1" t="s">
+      <c r="AC3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1561,7 +1666,7 @@
         <v>54</v>
       </c>
       <c r="B4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>32</v>
@@ -1573,10 +1678,10 @@
         <v>34</v>
       </c>
       <c r="F4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" t="s">
         <v>55</v>
-      </c>
-      <c r="G4" t="s">
-        <v>56</v>
       </c>
       <c r="H4" t="s">
         <v>37</v>
@@ -1588,19 +1693,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O4" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="P4" t="s">
         <v>57</v>
@@ -1612,10 +1717,10 @@
         <v>59</v>
       </c>
       <c r="S4" t="s">
+        <v>58</v>
+      </c>
+      <c r="T4" t="s">
         <v>60</v>
-      </c>
-      <c r="T4" t="s">
-        <v>61</v>
       </c>
       <c r="U4" t="s">
         <v>45</v>
@@ -1624,27 +1729,30 @@
         <v>46</v>
       </c>
       <c r="W4" t="s">
+        <v>61</v>
+      </c>
+      <c r="X4" t="s">
         <v>62</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>63</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>64</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>65</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>66</v>
       </c>
-      <c r="AB4" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC4" s="1" t="s">
+      <c r="AC4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD4" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1653,13 +1761,13 @@
         <v>69</v>
       </c>
       <c r="B5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="E5" t="s">
         <v>34</v>
@@ -1668,7 +1776,7 @@
         <v>35</v>
       </c>
       <c r="G5" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="H5" t="s">
         <v>37</v>
@@ -1676,91 +1784,94 @@
       <c r="I5" t="s">
         <v>38</v>
       </c>
-      <c r="J5" t="s">
-        <v>71</v>
+      <c r="J5">
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="N5">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="O5" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="P5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="U5" t="s">
         <v>45</v>
       </c>
       <c r="V5" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="W5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y5" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB5" t="s">
         <v>66</v>
       </c>
-      <c r="Z5" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC5" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>80</v>
+      <c r="AC5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:31">
       <c r="A6" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="E6" t="s">
         <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>35</v>
+        <v>87</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="H6" t="s">
         <v>37</v>
@@ -1768,91 +1879,94 @@
       <c r="I6" t="s">
         <v>38</v>
       </c>
-      <c r="J6" t="s">
-        <v>82</v>
+      <c r="J6">
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N6">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="O6" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="P6" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="Q6" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="R6" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="S6" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="T6" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="U6" t="s">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="V6" t="s">
         <v>46</v>
       </c>
       <c r="W6" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="X6" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="Y6" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="Z6" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="AA6" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="AB6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC6" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>94</v>
+        <v>97</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:31">
       <c r="A7" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>102</v>
       </c>
       <c r="E7" t="s">
-        <v>96</v>
+        <v>34</v>
       </c>
       <c r="F7" t="s">
         <v>35</v>
       </c>
       <c r="G7" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="H7" t="s">
         <v>37</v>
@@ -1864,78 +1978,81 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O7" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="P7" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="Q7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="R7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="S7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="T7" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="U7" t="s">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="V7" t="s">
         <v>46</v>
       </c>
       <c r="W7" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="X7" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="Y7" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="Z7" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="AA7" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="AB7" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC7" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>105</v>
+        <v>108</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD7" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:31">
       <c r="A8" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B8">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>102</v>
       </c>
       <c r="E8" t="s">
         <v>34</v>
@@ -1944,7 +2061,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="H8" t="s">
         <v>37</v>
@@ -1952,82 +2069,85 @@
       <c r="I8" t="s">
         <v>38</v>
       </c>
-      <c r="J8" t="s">
-        <v>82</v>
+      <c r="J8">
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="N8">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="O8" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="P8" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="Q8" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="R8" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="S8" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="T8" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="U8" t="s">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="V8" t="s">
         <v>46</v>
       </c>
       <c r="W8" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="X8" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="Y8" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="Z8" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="AA8" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="AB8" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC8" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>112</v>
+        <v>97</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD8" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:31">
       <c r="A9" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>121</v>
       </c>
       <c r="E9" t="s">
         <v>34</v>
@@ -2036,10 +2156,10 @@
         <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="H9" t="s">
-        <v>114</v>
+        <v>37</v>
       </c>
       <c r="I9" t="s">
         <v>38</v>
@@ -2048,78 +2168,81 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9" t="s">
-        <v>115</v>
+        <v>72</v>
       </c>
       <c r="P9" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="Q9" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="R9" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="S9" t="s">
-        <v>118</v>
+        <v>43</v>
       </c>
       <c r="T9" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="U9" t="s">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="V9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W9" t="s">
-        <v>120</v>
+        <v>62</v>
       </c>
       <c r="X9" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="Y9" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="Z9" t="s">
-        <v>91</v>
+        <v>127</v>
       </c>
       <c r="AA9" t="s">
-        <v>92</v>
+        <v>128</v>
       </c>
       <c r="AB9" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC9" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>123</v>
+        <v>129</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD9" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:31">
       <c r="A10" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="B10">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D10" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E10" t="s">
         <v>34</v>
@@ -2128,7 +2251,7 @@
         <v>35</v>
       </c>
       <c r="G10" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="H10" t="s">
         <v>37</v>
@@ -2140,84 +2263,87 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O10" t="s">
-        <v>127</v>
+        <v>72</v>
       </c>
       <c r="P10" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="Q10" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="R10" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="S10" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="T10" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="U10" t="s">
         <v>45</v>
       </c>
       <c r="V10" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="W10" t="s">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="X10" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="Y10" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="Z10" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AA10" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="AB10" t="s">
-        <v>134</v>
-      </c>
-      <c r="AC10" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>137</v>
+        <v>129</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD10" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:31">
       <c r="A11" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B11">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="D11" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="E11" t="s">
         <v>34</v>
       </c>
       <c r="F11" t="s">
-        <v>141</v>
+        <v>35</v>
       </c>
       <c r="G11" t="s">
         <v>36</v>
@@ -2228,82 +2354,85 @@
       <c r="I11" t="s">
         <v>38</v>
       </c>
-      <c r="J11" t="s">
-        <v>142</v>
+      <c r="J11">
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O11" t="s">
-        <v>115</v>
+        <v>72</v>
       </c>
       <c r="P11" t="s">
-        <v>143</v>
+        <v>103</v>
       </c>
       <c r="Q11" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="R11" t="s">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="S11" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="T11" t="s">
+        <v>124</v>
+      </c>
+      <c r="U11" t="s">
+        <v>45</v>
+      </c>
+      <c r="V11" t="s">
+        <v>45</v>
+      </c>
+      <c r="W11" t="s">
+        <v>62</v>
+      </c>
+      <c r="X11" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD11" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="U11" t="s">
-        <v>87</v>
-      </c>
-      <c r="V11" t="s">
-        <v>76</v>
-      </c>
-      <c r="W11" t="s">
-        <v>88</v>
-      </c>
-      <c r="X11" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>90</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>90</v>
-      </c>
-      <c r="AC11" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>148</v>
+      <c r="AE11" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:31">
       <c r="A12" t="s">
+        <v>147</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D12" t="s">
         <v>149</v>
-      </c>
-      <c r="B12">
-        <v>6</v>
-      </c>
-      <c r="C12" t="s">
-        <v>139</v>
-      </c>
-      <c r="D12" t="s">
-        <v>140</v>
       </c>
       <c r="E12" t="s">
         <v>34</v>
@@ -2312,7 +2441,7 @@
         <v>35</v>
       </c>
       <c r="G12" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="H12" t="s">
         <v>37</v>
@@ -2324,78 +2453,81 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O12" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="P12" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="Q12" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="R12" t="s">
-        <v>151</v>
+        <v>113</v>
       </c>
       <c r="S12" t="s">
-        <v>152</v>
+        <v>43</v>
       </c>
       <c r="T12" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="U12" t="s">
         <v>45</v>
       </c>
       <c r="V12" t="s">
-        <v>154</v>
+        <v>45</v>
       </c>
       <c r="W12" t="s">
-        <v>132</v>
+        <v>62</v>
       </c>
       <c r="X12" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="Y12" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="Z12" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="AA12" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="AB12" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC12" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>157</v>
+        <v>129</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD12" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:31">
       <c r="A13" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B13">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D13" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="E13" t="s">
         <v>34</v>
@@ -2416,78 +2548,81 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O13" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="P13" t="s">
-        <v>161</v>
+        <v>125</v>
       </c>
       <c r="Q13" t="s">
-        <v>58</v>
+        <v>135</v>
       </c>
       <c r="R13" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="S13" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="T13" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="U13" t="s">
         <v>45</v>
       </c>
       <c r="V13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W13" t="s">
-        <v>165</v>
+        <v>62</v>
       </c>
       <c r="X13" t="s">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="Y13" t="s">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="Z13" t="s">
-        <v>66</v>
+        <v>158</v>
       </c>
       <c r="AA13" t="s">
-        <v>66</v>
+        <v>128</v>
       </c>
       <c r="AB13" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC13" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>167</v>
+        <v>129</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD13" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:31">
       <c r="A14" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B14">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="D14" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="E14" t="s">
         <v>34</v>
@@ -2496,7 +2631,7 @@
         <v>35</v>
       </c>
       <c r="G14" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="H14" t="s">
         <v>37</v>
@@ -2508,78 +2643,81 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O14" t="s">
         <v>39</v>
       </c>
       <c r="P14" t="s">
-        <v>171</v>
+        <v>42</v>
       </c>
       <c r="Q14" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="R14" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="S14" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="T14" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="U14" t="s">
         <v>45</v>
       </c>
       <c r="V14" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="W14" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="X14" t="s">
-        <v>174</v>
+        <v>126</v>
       </c>
       <c r="Y14" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="Z14" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="AA14" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="AB14" t="s">
-        <v>135</v>
-      </c>
-      <c r="AC14" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>176</v>
+        <v>129</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD14" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:31">
       <c r="A15" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="B15">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C15" t="s">
+        <v>168</v>
+      </c>
+      <c r="D15" t="s">
         <v>169</v>
-      </c>
-      <c r="D15" t="s">
-        <v>170</v>
       </c>
       <c r="E15" t="s">
         <v>34</v>
@@ -2588,90 +2726,93 @@
         <v>35</v>
       </c>
       <c r="G15" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" t="s">
+        <v>170</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15" t="s">
         <v>56</v>
       </c>
-      <c r="H15" t="s">
-        <v>37</v>
-      </c>
-      <c r="I15" t="s">
-        <v>38</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>6</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>2</v>
-      </c>
-      <c r="N15">
-        <v>3</v>
-      </c>
-      <c r="O15" t="s">
-        <v>39</v>
-      </c>
       <c r="P15" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="Q15" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="R15" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="S15" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="T15" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="U15" t="s">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="V15" t="s">
         <v>46</v>
       </c>
       <c r="W15" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="X15" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="Y15" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Z15" t="s">
-        <v>90</v>
+        <v>175</v>
       </c>
       <c r="AA15" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AB15" t="s">
-        <v>90</v>
-      </c>
-      <c r="AC15" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>183</v>
+        <v>176</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD15" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="16" spans="1:31">
       <c r="A16" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B16">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C16" t="s">
+        <v>168</v>
+      </c>
+      <c r="D16" t="s">
         <v>169</v>
-      </c>
-      <c r="D16" t="s">
-        <v>170</v>
       </c>
       <c r="E16" t="s">
         <v>34</v>
@@ -2685,94 +2826,97 @@
       <c r="H16" t="s">
         <v>37</v>
       </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16" t="s">
-        <v>71</v>
+      <c r="I16" t="s">
+        <v>38</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O16" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="P16" t="s">
-        <v>185</v>
+        <v>103</v>
       </c>
       <c r="Q16" t="s">
-        <v>186</v>
+        <v>145</v>
       </c>
       <c r="R16" t="s">
-        <v>187</v>
+        <v>113</v>
       </c>
       <c r="S16" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="T16" t="s">
-        <v>188</v>
+        <v>145</v>
       </c>
       <c r="U16" t="s">
         <v>45</v>
       </c>
       <c r="V16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W16" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="X16" t="s">
-        <v>78</v>
+        <v>126</v>
       </c>
       <c r="Y16" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="Z16" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="AA16" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="AB16" t="s">
-        <v>134</v>
-      </c>
-      <c r="AC16" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>190</v>
+        <v>129</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD16" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>131</v>
       </c>
     </row>
-    <row r="17" spans="1:30">
+    <row r="17" spans="1:31">
       <c r="A17" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B17">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C17" t="s">
+        <v>168</v>
+      </c>
+      <c r="D17" t="s">
         <v>169</v>
-      </c>
-      <c r="D17" t="s">
-        <v>170</v>
       </c>
       <c r="E17" t="s">
         <v>34</v>
       </c>
       <c r="F17" t="s">
-        <v>192</v>
+        <v>35</v>
       </c>
       <c r="G17" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="H17" t="s">
         <v>37</v>
@@ -2784,78 +2928,81 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O17" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="P17" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="Q17" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="R17" t="s">
-        <v>195</v>
+        <v>125</v>
       </c>
       <c r="S17" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="T17" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="U17" t="s">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="V17" t="s">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="W17" t="s">
-        <v>198</v>
+        <v>78</v>
       </c>
       <c r="X17" t="s">
-        <v>89</v>
+        <v>138</v>
       </c>
       <c r="Y17" t="s">
-        <v>199</v>
+        <v>63</v>
       </c>
       <c r="Z17" t="s">
-        <v>91</v>
+        <v>186</v>
       </c>
       <c r="AA17" t="s">
-        <v>134</v>
+        <v>65</v>
       </c>
       <c r="AB17" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC17" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>201</v>
+        <v>108</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD17" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>160</v>
       </c>
     </row>
-    <row r="18" spans="1:30">
+    <row r="18" spans="1:31">
       <c r="A18" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="B18">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="D18" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="E18" t="s">
         <v>34</v>
@@ -2864,7 +3011,7 @@
         <v>35</v>
       </c>
       <c r="G18" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="H18" t="s">
         <v>37</v>
@@ -2872,82 +3019,85 @@
       <c r="I18" t="s">
         <v>38</v>
       </c>
-      <c r="J18" t="s">
-        <v>71</v>
+      <c r="J18">
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="N18">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="O18" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="P18" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="Q18" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="R18" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="S18" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="T18" t="s">
-        <v>75</v>
+        <v>194</v>
       </c>
       <c r="U18" t="s">
-        <v>45</v>
+        <v>195</v>
       </c>
       <c r="V18" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="W18" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="X18" t="s">
-        <v>48</v>
+        <v>196</v>
       </c>
       <c r="Y18" t="s">
-        <v>207</v>
+        <v>63</v>
       </c>
       <c r="Z18" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA18" t="s">
         <v>50</v>
       </c>
-      <c r="AA18" t="s">
-        <v>208</v>
-      </c>
       <c r="AB18" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC18" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>210</v>
+        <v>108</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD18" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>199</v>
       </c>
     </row>
-    <row r="19" spans="1:30">
+    <row r="19" spans="1:31">
       <c r="A19" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="B19">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
       <c r="D19" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
       <c r="E19" t="s">
         <v>34</v>
@@ -2968,78 +3118,81 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O19" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="P19" t="s">
-        <v>72</v>
+        <v>201</v>
       </c>
       <c r="Q19" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="R19" t="s">
-        <v>74</v>
+        <v>134</v>
       </c>
       <c r="S19" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="T19" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="U19" t="s">
         <v>45</v>
       </c>
       <c r="V19" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="W19" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X19" t="s">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="Y19" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Z19" t="s">
-        <v>133</v>
+        <v>186</v>
       </c>
       <c r="AA19" t="s">
-        <v>50</v>
+        <v>107</v>
       </c>
       <c r="AB19" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC19" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>218</v>
+        <v>108</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD19" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>206</v>
       </c>
     </row>
-    <row r="20" spans="1:30">
+    <row r="20" spans="1:31">
       <c r="A20" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="B20">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
       <c r="D20" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
       <c r="E20" t="s">
         <v>34</v>
@@ -3048,7 +3201,7 @@
         <v>35</v>
       </c>
       <c r="G20" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="H20" t="s">
         <v>37</v>
@@ -3060,87 +3213,90 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O20" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="P20" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="Q20" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="R20" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="S20" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="T20" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="U20" t="s">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="V20" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="W20" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="X20" t="s">
-        <v>89</v>
+        <v>212</v>
       </c>
       <c r="Y20" t="s">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c r="Z20" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="AA20" t="s">
-        <v>226</v>
+        <v>128</v>
       </c>
       <c r="AB20" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC20" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>167</v>
+        <v>129</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD20" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>215</v>
       </c>
     </row>
-    <row r="21" spans="1:30">
+    <row r="21" spans="1:31">
       <c r="A21" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="B21">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="D21" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="E21" t="s">
-        <v>34</v>
+        <v>219</v>
       </c>
       <c r="F21" t="s">
         <v>35</v>
       </c>
       <c r="G21" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="H21" t="s">
         <v>37</v>
@@ -3152,78 +3308,81 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O21" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="P21" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="Q21" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="R21" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="S21" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="T21" t="s">
-        <v>75</v>
+        <v>223</v>
       </c>
       <c r="U21" t="s">
         <v>45</v>
       </c>
       <c r="V21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W21" t="s">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="X21" t="s">
-        <v>132</v>
+        <v>224</v>
       </c>
       <c r="Y21" t="s">
-        <v>134</v>
+        <v>97</v>
       </c>
       <c r="Z21" t="s">
-        <v>134</v>
+        <v>213</v>
       </c>
       <c r="AA21" t="s">
-        <v>51</v>
+        <v>107</v>
       </c>
       <c r="AB21" t="s">
-        <v>134</v>
-      </c>
-      <c r="AC21" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>236</v>
+        <v>129</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD21" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>226</v>
       </c>
     </row>
-    <row r="22" spans="1:30">
+    <row r="22" spans="1:31">
       <c r="A22" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="B22">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="D22" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="E22" t="s">
         <v>34</v>
@@ -3232,10 +3391,10 @@
         <v>35</v>
       </c>
       <c r="G22" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="H22" t="s">
-        <v>114</v>
+        <v>37</v>
       </c>
       <c r="I22" t="s">
         <v>38</v>
@@ -3244,78 +3403,81 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O22" t="s">
-        <v>127</v>
+        <v>72</v>
       </c>
       <c r="P22" t="s">
-        <v>75</v>
+        <v>228</v>
       </c>
       <c r="Q22" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="R22" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="S22" t="s">
-        <v>75</v>
+        <v>229</v>
       </c>
       <c r="T22" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="U22" t="s">
         <v>45</v>
       </c>
       <c r="V22" t="s">
-        <v>240</v>
+        <v>46</v>
       </c>
       <c r="W22" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="X22" t="s">
-        <v>165</v>
+        <v>232</v>
       </c>
       <c r="Y22" t="s">
-        <v>242</v>
+        <v>63</v>
       </c>
       <c r="Z22" t="s">
-        <v>64</v>
+        <v>233</v>
       </c>
       <c r="AA22" t="s">
-        <v>242</v>
+        <v>96</v>
       </c>
       <c r="AB22" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC22" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="AD22" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD22" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31">
+      <c r="A23" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="23" spans="1:30">
-      <c r="A23" t="s">
-        <v>244</v>
-      </c>
       <c r="B23">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>245</v>
+        <v>217</v>
       </c>
       <c r="D23" t="s">
-        <v>246</v>
+        <v>218</v>
       </c>
       <c r="E23" t="s">
         <v>34</v>
@@ -3324,7 +3486,7 @@
         <v>35</v>
       </c>
       <c r="G23" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="H23" t="s">
         <v>37</v>
@@ -3333,81 +3495,84 @@
         <v>38</v>
       </c>
       <c r="J23" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="K23">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O23" t="s">
         <v>39</v>
       </c>
       <c r="P23" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="Q23" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="R23" t="s">
-        <v>72</v>
+        <v>240</v>
       </c>
       <c r="S23" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="T23" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="U23" t="s">
-        <v>87</v>
+        <v>195</v>
       </c>
       <c r="V23" t="s">
         <v>46</v>
       </c>
       <c r="W23" t="s">
-        <v>165</v>
+        <v>95</v>
       </c>
       <c r="X23" t="s">
-        <v>77</v>
+        <v>241</v>
       </c>
       <c r="Y23" t="s">
-        <v>208</v>
+        <v>63</v>
       </c>
       <c r="Z23" t="s">
-        <v>225</v>
+        <v>197</v>
       </c>
       <c r="AA23" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AB23" t="s">
-        <v>225</v>
-      </c>
-      <c r="AC23" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="AD23" t="s">
-        <v>253</v>
+        <v>66</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>242</v>
+      </c>
+      <c r="AD23" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>131</v>
       </c>
     </row>
-    <row r="24" spans="1:30">
+    <row r="24" spans="1:31">
       <c r="A24" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="B24">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>255</v>
+        <v>217</v>
       </c>
       <c r="D24" t="s">
-        <v>256</v>
+        <v>218</v>
       </c>
       <c r="E24" t="s">
         <v>34</v>
@@ -3416,7 +3581,7 @@
         <v>35</v>
       </c>
       <c r="G24" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="H24" t="s">
         <v>37</v>
@@ -3424,82 +3589,85 @@
       <c r="I24" t="s">
         <v>38</v>
       </c>
-      <c r="J24" t="s">
-        <v>257</v>
+      <c r="J24">
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O24" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="P24" t="s">
-        <v>258</v>
+        <v>157</v>
       </c>
       <c r="Q24" t="s">
-        <v>259</v>
+        <v>157</v>
       </c>
       <c r="R24" t="s">
-        <v>171</v>
+        <v>245</v>
       </c>
       <c r="S24" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="T24" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="U24" t="s">
         <v>45</v>
       </c>
       <c r="V24" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="W24" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="X24" t="s">
-        <v>261</v>
+        <v>95</v>
       </c>
       <c r="Y24" t="s">
-        <v>133</v>
+        <v>51</v>
       </c>
       <c r="Z24" t="s">
-        <v>262</v>
+        <v>96</v>
       </c>
       <c r="AA24" t="s">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AB24" t="s">
-        <v>262</v>
-      </c>
-      <c r="AC24" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="AD24" t="s">
-        <v>264</v>
+        <v>97</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD24" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>160</v>
       </c>
     </row>
-    <row r="25" spans="1:30">
+    <row r="25" spans="1:31">
       <c r="A25" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="B25">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>266</v>
+        <v>217</v>
       </c>
       <c r="D25" t="s">
-        <v>267</v>
+        <v>218</v>
       </c>
       <c r="E25" t="s">
         <v>34</v>
@@ -3508,7 +3676,7 @@
         <v>35</v>
       </c>
       <c r="G25" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="H25" t="s">
         <v>37</v>
@@ -3520,13 +3688,13 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N25">
         <v>2</v>
@@ -3535,155 +3703,161 @@
         <v>39</v>
       </c>
       <c r="P25" t="s">
-        <v>268</v>
+        <v>89</v>
       </c>
       <c r="Q25" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
       <c r="R25" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="S25" t="s">
-        <v>232</v>
+        <v>250</v>
       </c>
       <c r="T25" t="s">
-        <v>232</v>
+        <v>250</v>
       </c>
       <c r="U25" t="s">
+        <v>195</v>
+      </c>
+      <c r="V25" t="s">
         <v>46</v>
       </c>
-      <c r="V25" t="s">
-        <v>240</v>
-      </c>
       <c r="W25" t="s">
+        <v>95</v>
+      </c>
+      <c r="X25" t="s">
+        <v>241</v>
+      </c>
+      <c r="Y25" t="s">
         <v>63</v>
       </c>
-      <c r="X25" t="s">
-        <v>271</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>65</v>
-      </c>
       <c r="Z25" t="s">
-        <v>207</v>
+        <v>252</v>
       </c>
       <c r="AA25" t="s">
-        <v>65</v>
+        <v>141</v>
       </c>
       <c r="AB25" t="s">
-        <v>90</v>
-      </c>
-      <c r="AC25" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="AD25" t="s">
-        <v>273</v>
+        <v>66</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD25" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>254</v>
       </c>
     </row>
-    <row r="26" spans="1:30">
+    <row r="26" spans="1:31">
       <c r="A26" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
       <c r="B26">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="D26" t="s">
-        <v>276</v>
+        <v>218</v>
       </c>
       <c r="E26" t="s">
         <v>34</v>
       </c>
       <c r="F26" t="s">
-        <v>35</v>
+        <v>87</v>
       </c>
       <c r="G26" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="H26" t="s">
-        <v>37</v>
+        <v>170</v>
       </c>
       <c r="I26" t="s">
         <v>38</v>
       </c>
-      <c r="J26" t="s">
-        <v>142</v>
+      <c r="J26">
+        <v>0</v>
       </c>
       <c r="K26">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>0</v>
       </c>
       <c r="M26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O26" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="P26" t="s">
-        <v>277</v>
+        <v>256</v>
       </c>
       <c r="Q26" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="R26" t="s">
-        <v>197</v>
+        <v>257</v>
       </c>
       <c r="S26" t="s">
-        <v>75</v>
+        <v>258</v>
       </c>
       <c r="T26" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="U26" t="s">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="V26" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="W26" t="s">
-        <v>278</v>
+        <v>79</v>
       </c>
       <c r="X26" t="s">
-        <v>102</v>
+        <v>173</v>
       </c>
       <c r="Y26" t="s">
-        <v>279</v>
+        <v>63</v>
       </c>
       <c r="Z26" t="s">
-        <v>103</v>
+        <v>260</v>
       </c>
       <c r="AA26" t="s">
-        <v>134</v>
+        <v>65</v>
       </c>
       <c r="AB26" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC26" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="AD26" t="s">
-        <v>190</v>
+        <v>129</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD26" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>262</v>
       </c>
     </row>
-    <row r="27" spans="1:30">
+    <row r="27" spans="1:31">
       <c r="A27" t="s">
-        <v>289</v>
+        <v>263</v>
       </c>
       <c r="B27">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>290</v>
+        <v>217</v>
       </c>
       <c r="D27" t="s">
-        <v>291</v>
+        <v>218</v>
       </c>
       <c r="E27" t="s">
         <v>34</v>
@@ -3692,90 +3866,93 @@
         <v>35</v>
       </c>
       <c r="G27" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="H27" t="s">
-        <v>37</v>
+        <v>264</v>
       </c>
       <c r="I27" t="s">
         <v>38</v>
       </c>
-      <c r="J27">
-        <v>0</v>
+      <c r="J27" t="s">
+        <v>265</v>
       </c>
       <c r="K27">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>0</v>
       </c>
       <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27">
         <v>2</v>
       </c>
-      <c r="N27">
-        <v>3</v>
-      </c>
       <c r="O27" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="P27" t="s">
-        <v>292</v>
+        <v>266</v>
       </c>
       <c r="Q27" t="s">
-        <v>293</v>
+        <v>103</v>
       </c>
       <c r="R27" t="s">
-        <v>294</v>
+        <v>267</v>
       </c>
       <c r="S27" t="s">
-        <v>295</v>
+        <v>116</v>
       </c>
       <c r="T27" t="s">
-        <v>293</v>
+        <v>103</v>
       </c>
       <c r="U27" t="s">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="V27" t="s">
-        <v>240</v>
+        <v>45</v>
       </c>
       <c r="W27" t="s">
-        <v>63</v>
+        <v>268</v>
       </c>
       <c r="X27" t="s">
-        <v>120</v>
+        <v>269</v>
       </c>
       <c r="Y27" t="s">
-        <v>65</v>
+        <v>129</v>
       </c>
       <c r="Z27" t="s">
-        <v>121</v>
+        <v>270</v>
       </c>
       <c r="AA27" t="s">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="AB27" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC27" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="AD27" t="s">
-        <v>297</v>
+        <v>271</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD27" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>273</v>
       </c>
     </row>
-    <row r="28" spans="1:30">
+    <row r="28" spans="1:31">
       <c r="A28" t="s">
-        <v>298</v>
+        <v>274</v>
       </c>
       <c r="B28">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>299</v>
+        <v>217</v>
       </c>
       <c r="D28" t="s">
-        <v>300</v>
+        <v>218</v>
       </c>
       <c r="E28" t="s">
         <v>34</v>
@@ -3796,87 +3973,90 @@
         <v>0</v>
       </c>
       <c r="K28">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>0</v>
       </c>
       <c r="M28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O28" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="P28" t="s">
-        <v>74</v>
+        <v>220</v>
       </c>
       <c r="Q28" t="s">
+        <v>275</v>
+      </c>
+      <c r="R28" t="s">
+        <v>276</v>
+      </c>
+      <c r="S28" t="s">
+        <v>275</v>
+      </c>
+      <c r="T28" t="s">
+        <v>93</v>
+      </c>
+      <c r="U28" t="s">
+        <v>45</v>
+      </c>
+      <c r="V28" t="s">
+        <v>46</v>
+      </c>
+      <c r="W28" t="s">
+        <v>231</v>
+      </c>
+      <c r="X28" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z28" t="s">
         <v>233</v>
       </c>
-      <c r="R28" t="s">
-        <v>301</v>
-      </c>
-      <c r="S28" t="s">
-        <v>75</v>
-      </c>
-      <c r="T28" t="s">
-        <v>233</v>
-      </c>
-      <c r="U28" t="s">
-        <v>87</v>
-      </c>
-      <c r="V28" t="s">
-        <v>154</v>
-      </c>
-      <c r="W28" t="s">
-        <v>302</v>
-      </c>
-      <c r="X28" t="s">
-        <v>303</v>
-      </c>
-      <c r="Y28" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z28" t="s">
-        <v>304</v>
-      </c>
       <c r="AA28" t="s">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AB28" t="s">
-        <v>304</v>
-      </c>
-      <c r="AC28" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="AD28" t="s">
-        <v>306</v>
+        <v>108</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD28" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>278</v>
       </c>
     </row>
-    <row r="29" spans="1:30">
+    <row r="29" spans="1:31">
       <c r="A29" t="s">
-        <v>307</v>
+        <v>279</v>
       </c>
       <c r="B29">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>308</v>
+        <v>280</v>
       </c>
       <c r="D29" t="s">
-        <v>309</v>
+        <v>281</v>
       </c>
       <c r="E29" t="s">
-        <v>310</v>
+        <v>34</v>
       </c>
       <c r="F29" t="s">
         <v>35</v>
       </c>
       <c r="G29" t="s">
-        <v>311</v>
+        <v>88</v>
       </c>
       <c r="H29" t="s">
         <v>37</v>
@@ -3888,81 +4068,84 @@
         <v>0</v>
       </c>
       <c r="K29">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>0</v>
       </c>
       <c r="M29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O29" t="s">
-        <v>312</v>
+        <v>39</v>
       </c>
       <c r="P29" t="s">
-        <v>313</v>
+        <v>259</v>
       </c>
       <c r="Q29" t="s">
-        <v>173</v>
+        <v>250</v>
       </c>
       <c r="R29" t="s">
-        <v>314</v>
+        <v>228</v>
       </c>
       <c r="S29" t="s">
-        <v>315</v>
+        <v>250</v>
       </c>
       <c r="T29" t="s">
-        <v>316</v>
+        <v>282</v>
       </c>
       <c r="U29" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="V29" t="s">
-        <v>46</v>
+        <v>283</v>
       </c>
       <c r="W29" t="s">
-        <v>317</v>
+        <v>62</v>
       </c>
       <c r="X29" t="s">
-        <v>318</v>
+        <v>284</v>
       </c>
       <c r="Y29" t="s">
-        <v>319</v>
+        <v>66</v>
       </c>
       <c r="Z29" t="s">
-        <v>320</v>
+        <v>127</v>
       </c>
       <c r="AA29" t="s">
-        <v>321</v>
+        <v>285</v>
       </c>
       <c r="AB29" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC29" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="AD29" t="s">
-        <v>323</v>
+        <v>129</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD29" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>131</v>
       </c>
     </row>
-    <row r="30" spans="1:30">
+    <row r="30" spans="1:31">
       <c r="A30" t="s">
-        <v>324</v>
+        <v>287</v>
       </c>
       <c r="B30">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>325</v>
+        <v>288</v>
       </c>
       <c r="D30" t="s">
-        <v>326</v>
+        <v>289</v>
       </c>
       <c r="E30" t="s">
-        <v>327</v>
+        <v>34</v>
       </c>
       <c r="F30" t="s">
         <v>35</v>
@@ -3980,96 +4163,1251 @@
         <v>0</v>
       </c>
       <c r="K30">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>0</v>
       </c>
       <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30" t="s">
+        <v>72</v>
+      </c>
+      <c r="P30" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>165</v>
+      </c>
+      <c r="R30" t="s">
+        <v>122</v>
+      </c>
+      <c r="S30" t="s">
+        <v>122</v>
+      </c>
+      <c r="T30" t="s">
+        <v>290</v>
+      </c>
+      <c r="U30" t="s">
+        <v>45</v>
+      </c>
+      <c r="V30" t="s">
+        <v>45</v>
+      </c>
+      <c r="W30" t="s">
+        <v>62</v>
+      </c>
+      <c r="X30" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD30" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31">
+      <c r="A31" t="s">
+        <v>292</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31" t="s">
+        <v>293</v>
+      </c>
+      <c r="D31" t="s">
+        <v>294</v>
+      </c>
+      <c r="E31" t="s">
+        <v>34</v>
+      </c>
+      <c r="F31" t="s">
+        <v>35</v>
+      </c>
+      <c r="G31" t="s">
+        <v>36</v>
+      </c>
+      <c r="H31" t="s">
+        <v>37</v>
+      </c>
+      <c r="I31" t="s">
+        <v>38</v>
+      </c>
+      <c r="J31" t="s">
+        <v>295</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31" t="s">
+        <v>39</v>
+      </c>
+      <c r="P31" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>162</v>
+      </c>
+      <c r="R31" t="s">
+        <v>91</v>
+      </c>
+      <c r="S31" t="s">
+        <v>162</v>
+      </c>
+      <c r="T31" t="s">
+        <v>296</v>
+      </c>
+      <c r="U31" t="s">
+        <v>46</v>
+      </c>
+      <c r="V31" t="s">
+        <v>297</v>
+      </c>
+      <c r="W31" t="s">
+        <v>298</v>
+      </c>
+      <c r="X31" t="s">
+        <v>299</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>300</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD31" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31">
+      <c r="A32" t="s">
+        <v>303</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32" t="s">
+        <v>304</v>
+      </c>
+      <c r="D32" t="s">
+        <v>305</v>
+      </c>
+      <c r="E32" t="s">
+        <v>34</v>
+      </c>
+      <c r="F32" t="s">
+        <v>35</v>
+      </c>
+      <c r="G32" t="s">
+        <v>88</v>
+      </c>
+      <c r="H32" t="s">
+        <v>170</v>
+      </c>
+      <c r="I32" t="s">
+        <v>38</v>
+      </c>
+      <c r="J32" t="s">
+        <v>295</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
         <v>2</v>
       </c>
-      <c r="N30">
-        <v>3</v>
-      </c>
-      <c r="O30" t="s">
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32" t="s">
+        <v>306</v>
+      </c>
+      <c r="P32" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>307</v>
+      </c>
+      <c r="R32" t="s">
+        <v>307</v>
+      </c>
+      <c r="S32" t="s">
+        <v>307</v>
+      </c>
+      <c r="T32" t="s">
+        <v>307</v>
+      </c>
+      <c r="U32" t="s">
+        <v>45</v>
+      </c>
+      <c r="V32" t="s">
+        <v>46</v>
+      </c>
+      <c r="W32" t="s">
+        <v>173</v>
+      </c>
+      <c r="X32" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>175</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>176</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD32" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31">
+      <c r="A33" t="s">
+        <v>309</v>
+      </c>
+      <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="C33" t="s">
+        <v>304</v>
+      </c>
+      <c r="D33" t="s">
+        <v>305</v>
+      </c>
+      <c r="E33" t="s">
+        <v>34</v>
+      </c>
+      <c r="F33" t="s">
+        <v>35</v>
+      </c>
+      <c r="G33" t="s">
+        <v>88</v>
+      </c>
+      <c r="H33" t="s">
+        <v>37</v>
+      </c>
+      <c r="I33" t="s">
+        <v>38</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33" t="s">
+        <v>72</v>
+      </c>
+      <c r="P33" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>122</v>
+      </c>
+      <c r="R33" t="s">
+        <v>162</v>
+      </c>
+      <c r="S33" t="s">
+        <v>311</v>
+      </c>
+      <c r="T33" t="s">
+        <v>122</v>
+      </c>
+      <c r="U33" t="s">
+        <v>45</v>
+      </c>
+      <c r="V33" t="s">
+        <v>46</v>
+      </c>
+      <c r="W33" t="s">
+        <v>79</v>
+      </c>
+      <c r="X33" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>213</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>312</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD33" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="34" spans="1:31">
+      <c r="A34" t="s">
+        <v>314</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="C34" t="s">
+        <v>315</v>
+      </c>
+      <c r="D34" t="s">
+        <v>316</v>
+      </c>
+      <c r="E34" t="s">
+        <v>34</v>
+      </c>
+      <c r="F34" t="s">
+        <v>35</v>
+      </c>
+      <c r="G34" t="s">
+        <v>88</v>
+      </c>
+      <c r="H34" t="s">
+        <v>37</v>
+      </c>
+      <c r="I34" t="s">
+        <v>38</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34" t="s">
+        <v>72</v>
+      </c>
+      <c r="P34" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>229</v>
+      </c>
+      <c r="R34" t="s">
+        <v>122</v>
+      </c>
+      <c r="S34" t="s">
+        <v>317</v>
+      </c>
+      <c r="T34" t="s">
+        <v>93</v>
+      </c>
+      <c r="U34" t="s">
+        <v>45</v>
+      </c>
+      <c r="V34" t="s">
+        <v>46</v>
+      </c>
+      <c r="W34" t="s">
+        <v>231</v>
+      </c>
+      <c r="X34" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>233</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD34" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31">
+      <c r="A35" t="s">
+        <v>319</v>
+      </c>
+      <c r="B35">
+        <v>3</v>
+      </c>
+      <c r="C35" t="s">
+        <v>315</v>
+      </c>
+      <c r="D35" t="s">
+        <v>316</v>
+      </c>
+      <c r="E35" t="s">
+        <v>34</v>
+      </c>
+      <c r="F35" t="s">
+        <v>35</v>
+      </c>
+      <c r="G35" t="s">
+        <v>88</v>
+      </c>
+      <c r="H35" t="s">
+        <v>37</v>
+      </c>
+      <c r="I35" t="s">
+        <v>38</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35" t="s">
+        <v>56</v>
+      </c>
+      <c r="P35" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>320</v>
+      </c>
+      <c r="R35" t="s">
+        <v>89</v>
+      </c>
+      <c r="S35" t="s">
+        <v>321</v>
+      </c>
+      <c r="T35" t="s">
+        <v>322</v>
+      </c>
+      <c r="U35" t="s">
+        <v>45</v>
+      </c>
+      <c r="V35" t="s">
+        <v>46</v>
+      </c>
+      <c r="W35" t="s">
+        <v>232</v>
+      </c>
+      <c r="X35" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>242</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>285</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>242</v>
+      </c>
+      <c r="AD35" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="36" spans="1:31">
+      <c r="A36" t="s">
+        <v>324</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="C36" t="s">
+        <v>315</v>
+      </c>
+      <c r="D36" t="s">
+        <v>316</v>
+      </c>
+      <c r="E36" t="s">
+        <v>34</v>
+      </c>
+      <c r="F36" t="s">
+        <v>35</v>
+      </c>
+      <c r="G36" t="s">
+        <v>88</v>
+      </c>
+      <c r="H36" t="s">
+        <v>264</v>
+      </c>
+      <c r="I36" t="s">
+        <v>38</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36" t="s">
+        <v>72</v>
+      </c>
+      <c r="P36" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>326</v>
+      </c>
+      <c r="R36" t="s">
+        <v>327</v>
+      </c>
+      <c r="S36" t="s">
+        <v>257</v>
+      </c>
+      <c r="T36" t="s">
+        <v>326</v>
+      </c>
+      <c r="U36" t="s">
+        <v>45</v>
+      </c>
+      <c r="V36" t="s">
+        <v>45</v>
+      </c>
+      <c r="W36" t="s">
+        <v>268</v>
+      </c>
+      <c r="X36" t="s">
+        <v>269</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>270</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>271</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD36" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31">
+      <c r="A37" t="s">
+        <v>329</v>
+      </c>
+      <c r="B37">
+        <v>3</v>
+      </c>
+      <c r="C37" t="s">
+        <v>315</v>
+      </c>
+      <c r="D37" t="s">
+        <v>316</v>
+      </c>
+      <c r="E37" t="s">
+        <v>34</v>
+      </c>
+      <c r="F37" t="s">
+        <v>35</v>
+      </c>
+      <c r="G37" t="s">
+        <v>88</v>
+      </c>
+      <c r="H37" t="s">
+        <v>37</v>
+      </c>
+      <c r="I37" t="s">
+        <v>38</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>1</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37" t="s">
+        <v>72</v>
+      </c>
+      <c r="P37" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>330</v>
+      </c>
+      <c r="R37" t="s">
+        <v>60</v>
+      </c>
+      <c r="S37" t="s">
+        <v>330</v>
+      </c>
+      <c r="T37" t="s">
+        <v>331</v>
+      </c>
+      <c r="U37" t="s">
+        <v>45</v>
+      </c>
+      <c r="V37" t="s">
+        <v>45</v>
+      </c>
+      <c r="W37" t="s">
+        <v>62</v>
+      </c>
+      <c r="X37" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD37" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="38" spans="1:31">
+      <c r="A38" t="s">
+        <v>333</v>
+      </c>
+      <c r="B38">
+        <v>3</v>
+      </c>
+      <c r="C38" t="s">
+        <v>334</v>
+      </c>
+      <c r="D38" t="s">
+        <v>335</v>
+      </c>
+      <c r="E38" t="s">
+        <v>34</v>
+      </c>
+      <c r="F38" t="s">
+        <v>35</v>
+      </c>
+      <c r="G38" t="s">
+        <v>88</v>
+      </c>
+      <c r="H38" t="s">
+        <v>264</v>
+      </c>
+      <c r="I38" t="s">
+        <v>38</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>3</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>1</v>
+      </c>
+      <c r="N38">
+        <v>2</v>
+      </c>
+      <c r="O38" t="s">
         <v>39</v>
       </c>
-      <c r="P30" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>329</v>
-      </c>
-      <c r="R30" t="s">
-        <v>195</v>
-      </c>
-      <c r="S30" t="s">
-        <v>330</v>
-      </c>
-      <c r="T30" t="s">
+      <c r="P38" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>336</v>
+      </c>
+      <c r="R38" t="s">
+        <v>337</v>
+      </c>
+      <c r="S38" t="s">
+        <v>336</v>
+      </c>
+      <c r="T38" t="s">
+        <v>338</v>
+      </c>
+      <c r="U38" t="s">
+        <v>45</v>
+      </c>
+      <c r="V38" t="s">
+        <v>46</v>
+      </c>
+      <c r="W38" t="s">
+        <v>79</v>
+      </c>
+      <c r="X38" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>213</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD38" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="39" spans="1:31">
+      <c r="A39" t="s">
+        <v>341</v>
+      </c>
+      <c r="B39">
+        <v>3</v>
+      </c>
+      <c r="C39" t="s">
+        <v>342</v>
+      </c>
+      <c r="D39" t="s">
+        <v>343</v>
+      </c>
+      <c r="E39" t="s">
+        <v>34</v>
+      </c>
+      <c r="F39" t="s">
+        <v>35</v>
+      </c>
+      <c r="G39" t="s">
+        <v>88</v>
+      </c>
+      <c r="H39" t="s">
+        <v>37</v>
+      </c>
+      <c r="I39" t="s">
+        <v>38</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>3</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>1</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39" t="s">
+        <v>72</v>
+      </c>
+      <c r="P39" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>89</v>
+      </c>
+      <c r="R39" t="s">
+        <v>344</v>
+      </c>
+      <c r="S39" t="s">
+        <v>345</v>
+      </c>
+      <c r="T39" t="s">
+        <v>346</v>
+      </c>
+      <c r="U39" t="s">
+        <v>45</v>
+      </c>
+      <c r="V39" t="s">
+        <v>46</v>
+      </c>
+      <c r="W39" t="s">
+        <v>62</v>
+      </c>
+      <c r="X39" t="s">
+        <v>347</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>348</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD39" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="40" spans="1:31">
+      <c r="A40" t="s">
+        <v>350</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40" t="s">
+        <v>351</v>
+      </c>
+      <c r="D40" t="s">
+        <v>352</v>
+      </c>
+      <c r="E40" t="s">
+        <v>34</v>
+      </c>
+      <c r="F40" t="s">
+        <v>35</v>
+      </c>
+      <c r="G40" t="s">
+        <v>88</v>
+      </c>
+      <c r="H40" t="s">
+        <v>170</v>
+      </c>
+      <c r="I40" t="s">
+        <v>38</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>3</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40" t="s">
+        <v>72</v>
+      </c>
+      <c r="P40" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>290</v>
+      </c>
+      <c r="R40" t="s">
         <v>331</v>
       </c>
-      <c r="U30" t="s">
+      <c r="S40" t="s">
+        <v>353</v>
+      </c>
+      <c r="T40" t="s">
+        <v>353</v>
+      </c>
+      <c r="U40" t="s">
         <v>46</v>
       </c>
-      <c r="V30" t="s">
-        <v>46</v>
-      </c>
-      <c r="W30" t="s">
-        <v>198</v>
-      </c>
-      <c r="X30" t="s">
-        <v>332</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>333</v>
-      </c>
-      <c r="Z30" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA30" t="s">
+      <c r="V40" t="s">
+        <v>283</v>
+      </c>
+      <c r="W40" t="s">
+        <v>354</v>
+      </c>
+      <c r="X40" t="s">
+        <v>355</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>356</v>
+      </c>
+      <c r="AA40" t="s">
         <v>64</v>
       </c>
-      <c r="AB30" t="s">
-        <v>121</v>
-      </c>
-      <c r="AC30" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="AD30" t="s">
-        <v>190</v>
+      <c r="AB40" t="s">
+        <v>176</v>
+      </c>
+      <c r="AC40" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD40" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="41" spans="1:31">
+      <c r="A41" t="s">
+        <v>358</v>
+      </c>
+      <c r="B41">
+        <v>3</v>
+      </c>
+      <c r="C41" t="s">
+        <v>359</v>
+      </c>
+      <c r="D41" t="s">
+        <v>360</v>
+      </c>
+      <c r="E41" t="s">
+        <v>361</v>
+      </c>
+      <c r="F41" t="s">
+        <v>35</v>
+      </c>
+      <c r="G41" t="s">
+        <v>88</v>
+      </c>
+      <c r="H41" t="s">
+        <v>37</v>
+      </c>
+      <c r="I41" t="s">
+        <v>38</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>2</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41" t="s">
+        <v>39</v>
+      </c>
+      <c r="P41" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>363</v>
+      </c>
+      <c r="R41" t="s">
+        <v>41</v>
+      </c>
+      <c r="S41" t="s">
+        <v>363</v>
+      </c>
+      <c r="T41" t="s">
+        <v>203</v>
+      </c>
+      <c r="U41" t="s">
+        <v>45</v>
+      </c>
+      <c r="V41" t="s">
+        <v>45</v>
+      </c>
+      <c r="W41" t="s">
+        <v>241</v>
+      </c>
+      <c r="X41" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>364</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD41" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="42" spans="1:31">
+      <c r="A42" t="s">
+        <v>366</v>
+      </c>
+      <c r="B42">
+        <v>3</v>
+      </c>
+      <c r="C42" t="s">
+        <v>359</v>
+      </c>
+      <c r="D42" t="s">
+        <v>360</v>
+      </c>
+      <c r="E42" t="s">
+        <v>361</v>
+      </c>
+      <c r="F42" t="s">
+        <v>35</v>
+      </c>
+      <c r="G42" t="s">
+        <v>88</v>
+      </c>
+      <c r="H42" t="s">
+        <v>37</v>
+      </c>
+      <c r="I42" t="s">
+        <v>38</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>2</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="M42">
+        <v>1</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42" t="s">
+        <v>39</v>
+      </c>
+      <c r="P42" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>363</v>
+      </c>
+      <c r="R42" t="s">
+        <v>41</v>
+      </c>
+      <c r="S42" t="s">
+        <v>363</v>
+      </c>
+      <c r="T42" t="s">
+        <v>203</v>
+      </c>
+      <c r="U42" t="s">
+        <v>45</v>
+      </c>
+      <c r="V42" t="s">
+        <v>45</v>
+      </c>
+      <c r="W42" t="s">
+        <v>241</v>
+      </c>
+      <c r="X42" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>364</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC42" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD42" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>368</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="AC3" r:id="rId1"/>
-    <hyperlink ref="AC4" r:id="rId2"/>
-    <hyperlink ref="AC5" r:id="rId3"/>
-    <hyperlink ref="AC6" r:id="rId4"/>
-    <hyperlink ref="AC7" r:id="rId5"/>
-    <hyperlink ref="AC8" r:id="rId6"/>
-    <hyperlink ref="AC9" r:id="rId7"/>
-    <hyperlink ref="AC10" r:id="rId8"/>
-    <hyperlink ref="AC11" r:id="rId9"/>
-    <hyperlink ref="AC12" r:id="rId10"/>
-    <hyperlink ref="AC13" r:id="rId11"/>
-    <hyperlink ref="AC14" r:id="rId12"/>
-    <hyperlink ref="AC15" r:id="rId13"/>
-    <hyperlink ref="AC16" r:id="rId14"/>
-    <hyperlink ref="AC17" r:id="rId15"/>
-    <hyperlink ref="AC18" r:id="rId16"/>
-    <hyperlink ref="AC19" r:id="rId17"/>
-    <hyperlink ref="AC20" r:id="rId18"/>
-    <hyperlink ref="AC21" r:id="rId19"/>
-    <hyperlink ref="AC22" r:id="rId20"/>
-    <hyperlink ref="AC23" r:id="rId21"/>
-    <hyperlink ref="AC24" r:id="rId22"/>
-    <hyperlink ref="AC25" r:id="rId23"/>
-    <hyperlink ref="AC26" r:id="rId24"/>
-    <hyperlink ref="AC27" r:id="rId25"/>
-    <hyperlink ref="AC28" r:id="rId26"/>
-    <hyperlink ref="AC29" r:id="rId27"/>
-    <hyperlink ref="AC30" r:id="rId28"/>
+    <hyperlink ref="AD3" r:id="rId1"/>
+    <hyperlink ref="AD4" r:id="rId2"/>
+    <hyperlink ref="AD5" r:id="rId3"/>
+    <hyperlink ref="AD6" r:id="rId4"/>
+    <hyperlink ref="AD7" r:id="rId5"/>
+    <hyperlink ref="AD8" r:id="rId6"/>
+    <hyperlink ref="AD9" r:id="rId7"/>
+    <hyperlink ref="AD10" r:id="rId8"/>
+    <hyperlink ref="AD11" r:id="rId9"/>
+    <hyperlink ref="AD12" r:id="rId10"/>
+    <hyperlink ref="AD13" r:id="rId11"/>
+    <hyperlink ref="AD14" r:id="rId12"/>
+    <hyperlink ref="AD15" r:id="rId13"/>
+    <hyperlink ref="AD16" r:id="rId14"/>
+    <hyperlink ref="AD17" r:id="rId15"/>
+    <hyperlink ref="AD18" r:id="rId16"/>
+    <hyperlink ref="AD19" r:id="rId17"/>
+    <hyperlink ref="AD20" r:id="rId18"/>
+    <hyperlink ref="AD21" r:id="rId19"/>
+    <hyperlink ref="AD22" r:id="rId20"/>
+    <hyperlink ref="AD23" r:id="rId21"/>
+    <hyperlink ref="AD24" r:id="rId22"/>
+    <hyperlink ref="AD25" r:id="rId23"/>
+    <hyperlink ref="AD26" r:id="rId24"/>
+    <hyperlink ref="AD27" r:id="rId25"/>
+    <hyperlink ref="AD28" r:id="rId26"/>
+    <hyperlink ref="AD29" r:id="rId27"/>
+    <hyperlink ref="AD30" r:id="rId28"/>
+    <hyperlink ref="AD31" r:id="rId29"/>
+    <hyperlink ref="AD32" r:id="rId30"/>
+    <hyperlink ref="AD33" r:id="rId31"/>
+    <hyperlink ref="AD34" r:id="rId32"/>
+    <hyperlink ref="AD35" r:id="rId33"/>
+    <hyperlink ref="AD36" r:id="rId34"/>
+    <hyperlink ref="AD37" r:id="rId35"/>
+    <hyperlink ref="AD38" r:id="rId36"/>
+    <hyperlink ref="AD39" r:id="rId37"/>
+    <hyperlink ref="AD40" r:id="rId38"/>
+    <hyperlink ref="AD41" r:id="rId39"/>
+    <hyperlink ref="AD42" r:id="rId40"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
